--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:U128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,19 +540,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -734,19 +724,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -803,12 +783,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1122,19 +1102,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1413,19 +1383,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1482,12 +1442,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1510,19 +1470,9 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-2</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1579,12 +1529,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1607,19 +1557,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1641,47 +1581,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1773,12 +1713,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1801,19 +1741,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-2</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1870,12 +1800,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1898,19 +1828,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2092,19 +2012,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-2</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2116,12 +2026,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2131,7 +2041,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2161,12 +2071,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2189,19 +2099,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2213,7 +2113,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2248,7 +2148,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2258,47 +2158,37 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>-4</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2310,7 +2200,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2345,7 +2235,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2355,7 +2245,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2365,12 +2255,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2380,7 +2270,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2407,7 +2297,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Stapaloop 16-1</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2442,7 +2332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2452,37 +2342,37 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>-2</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2492,7 +2382,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2504,7 +2394,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Trail 16-1</t>
+          <t>Stapaloop 16-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2539,7 +2429,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2549,12 +2439,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2601,7 +2491,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Wildhorse 16-2</t>
+          <t>Trail 16-1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2636,7 +2526,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2646,7 +2536,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2656,12 +2546,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2671,12 +2561,22 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2688,7 +2588,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bonaparte 16-1</t>
+          <t>Wildhorse 16-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2698,12 +2598,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2723,7 +2623,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2733,17 +2633,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2758,22 +2658,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2785,7 +2670,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Johnson 16-1</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2820,7 +2705,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2830,22 +2715,22 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2855,22 +2740,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2882,7 +2757,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Johnson 16-7</t>
+          <t>Johnson 16-1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2917,7 +2792,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2932,7 +2807,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2955,19 +2830,9 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2979,7 +2844,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Johnson 16-7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3014,7 +2879,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3029,7 +2894,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3059,12 +2924,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3076,7 +2941,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Okanogan 16-18</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3111,7 +2976,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3121,7 +2986,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3131,12 +2996,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3146,7 +3011,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3156,24 +3021,24 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Okanogan 16-19</t>
+          <t>Okanogan 16-18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3183,12 +3048,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3218,12 +3083,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3246,31 +3111,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Okanogan 16-24</t>
+          <t>Okanogan 16-19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3315,12 +3170,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3345,7 +3200,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3355,7 +3210,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3367,7 +3222,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Okanogan 16-25</t>
+          <t>Okanogan 16-24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3412,12 +3267,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3442,7 +3297,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3452,7 +3307,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3464,7 +3319,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Okanogan 16-32</t>
+          <t>Okanogan 16-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3509,12 +3364,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3539,7 +3394,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3549,7 +3404,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3561,7 +3416,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Okanogan 16-35</t>
+          <t>Okanogan 16-32</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3571,12 +3426,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3634,19 +3489,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3658,7 +3503,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Okanogan 16-43</t>
+          <t>Okanogan 16-35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3693,7 +3538,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3708,7 +3553,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3731,19 +3576,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3755,7 +3590,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Antoine 16-2</t>
+          <t>Okanogan 16-43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3765,12 +3600,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3790,7 +3625,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3800,47 +3635,47 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3852,7 +3687,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3897,22 +3732,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3922,7 +3757,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3949,7 +3784,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Johnson 16-3</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3959,12 +3794,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4004,12 +3839,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4019,22 +3854,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4046,7 +3871,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Johnson 16-3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4056,49 +3881,49 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>5</t>
@@ -4119,19 +3944,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q39" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4143,7 +3958,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ninemile 16-2</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4240,7 +4055,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ninemile 16-4</t>
+          <t>Ninemile 16-2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4285,12 +4100,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4320,12 +4135,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4337,7 +4152,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ninemile 16-5</t>
+          <t>Ninemile 16-4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4434,7 +4249,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Okanogan 16-10</t>
+          <t>Ninemile 16-5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4479,12 +4294,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4509,17 +4324,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4531,7 +4346,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Okanogan 16-14</t>
+          <t>Okanogan 16-10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4541,12 +4356,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4576,12 +4391,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4604,19 +4419,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4628,7 +4433,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Okanogan 16-15</t>
+          <t>Okanogan 16-14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4638,12 +4443,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4663,7 +4468,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4673,22 +4478,22 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4698,22 +4503,12 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>-2</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4725,7 +4520,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Okanogan 16-34</t>
+          <t>Okanogan 16-15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4735,12 +4530,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4760,7 +4555,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4770,7 +4565,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4780,12 +4575,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4795,12 +4590,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4810,7 +4605,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4822,7 +4617,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Okanogan 16-38</t>
+          <t>Okanogan 16-34</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4832,12 +4627,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4897,7 +4692,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4907,7 +4702,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4919,7 +4714,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Okanogan 16-39</t>
+          <t>Okanogan 16-38</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4929,12 +4724,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4992,19 +4787,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Q48" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -5016,7 +4801,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Okanogan 16-40</t>
+          <t>Okanogan 16-39</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5091,7 +4876,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -5101,7 +4886,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -5113,7 +4898,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Okanogan 16-42</t>
+          <t>Okanogan 16-40</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5168,12 +4953,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -5183,22 +4968,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5210,7 +4985,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Omak 16-10</t>
+          <t>Okanogan 16-42</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5255,22 +5030,22 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -5280,17 +5055,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5307,7 +5082,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Omak 16-11</t>
+          <t>Omak 16-10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5352,12 +5127,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -5404,7 +5179,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Omak 16-12</t>
+          <t>Omak 16-11</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5449,12 +5224,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -5477,19 +5252,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q53" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5501,7 +5266,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Omak 16-13</t>
+          <t>Omak 16-12</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5546,12 +5311,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -5598,7 +5363,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Omak 16-14</t>
+          <t>Omak 16-13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5671,19 +5436,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q55" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5695,7 +5450,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Omak 16-15</t>
+          <t>Omak 16-14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5792,7 +5547,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-15</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5827,7 +5582,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5837,7 +5592,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5847,12 +5602,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5862,22 +5617,12 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5889,7 +5634,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5924,7 +5669,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5939,17 +5684,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5959,7 +5704,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5986,7 +5731,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6061,7 +5806,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6071,7 +5816,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -6083,7 +5828,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6156,19 +5901,9 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q60" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -6180,7 +5915,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6253,19 +5988,9 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q61" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6277,7 +6002,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6357,12 +6082,12 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6374,7 +6099,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6419,22 +6144,22 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -6444,22 +6169,12 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6471,7 +6186,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6506,7 +6221,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6516,12 +6231,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -6568,7 +6283,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6603,7 +6318,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6613,7 +6328,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6665,7 +6380,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6710,22 +6425,22 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6735,22 +6450,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6762,7 +6467,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6807,22 +6512,22 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6832,22 +6537,12 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6859,7 +6554,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6904,12 +6599,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -6939,12 +6634,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6956,7 +6651,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7001,12 +6696,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -7029,19 +6724,9 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -7053,7 +6738,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7063,57 +6748,57 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7123,12 +6808,12 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -7138,7 +6823,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -7150,7 +6835,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7160,12 +6845,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7223,19 +6908,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Q71" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -7247,7 +6922,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7257,49 +6932,49 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>5</t>
@@ -7320,19 +6995,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q72" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7344,7 +7009,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wanacut 16-1</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7354,12 +7019,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7379,7 +7044,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7389,12 +7054,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -7417,19 +7082,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q73" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7441,7 +7096,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ninemile 16-1</t>
+          <t>Wanacut 16-1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7451,12 +7106,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -7476,7 +7131,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7486,7 +7141,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7538,7 +7193,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Ninemile 16-1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7548,12 +7203,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -7583,12 +7238,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -7611,19 +7266,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q75" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7635,7 +7280,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Wildhorse 16-1</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7670,7 +7315,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7680,12 +7325,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -7711,6 +7356,16 @@
       <c r="P76" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7722,22 +7377,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Okanogan 16-9</t>
+          <t>Wildhorse 16-1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -7757,7 +7412,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7767,12 +7422,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -7798,16 +7453,6 @@
       <c r="P77" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7819,22 +7464,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Okanogan 16-9</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7854,7 +7499,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7869,17 +7514,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7889,22 +7534,12 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7916,7 +7551,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7951,7 +7586,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7961,12 +7596,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -7989,19 +7624,9 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q79" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -8013,7 +7638,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8023,49 +7648,49 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>3</t>
@@ -8086,19 +7711,9 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q80" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -8110,7 +7725,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Okanogan 16-36</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -8120,12 +7735,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -8145,7 +7760,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -8155,12 +7770,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -8185,17 +7800,17 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -8207,7 +7822,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Okanogan 16-36</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -8217,12 +7832,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -8252,12 +7867,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -8280,19 +7895,9 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q82" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -8304,7 +7909,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Swimptkin 16-1</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8314,12 +7919,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -8339,7 +7944,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8349,47 +7954,37 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
           <t>-2</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8401,7 +7996,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Okanogan 16-17</t>
+          <t>Swimptkin 16-1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8411,12 +8006,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -8436,7 +8031,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -8446,22 +8041,22 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -8471,22 +8066,12 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8498,7 +8083,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Okanogan 16-31</t>
+          <t>Okanogan 16-17</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8543,12 +8128,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -8571,19 +8156,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8595,7 +8170,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Okanogan 16-44</t>
+          <t>Okanogan 16-31</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8605,49 +8180,49 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>5</t>
@@ -8675,12 +8250,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -8692,7 +8267,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Okanogan 16-45</t>
+          <t>Okanogan 16-44</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -8765,19 +8340,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q87" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -8789,7 +8354,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Whitestone 16-1</t>
+          <t>Okanogan 16-45</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -8799,12 +8364,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -8824,7 +8389,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8834,7 +8399,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8869,12 +8434,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8886,7 +8451,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Whitestone 16-2</t>
+          <t>Whitestone 16-1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -8983,7 +8548,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Whitestone 16-3</t>
+          <t>Whitestone 16-2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -9056,19 +8621,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Q90" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>-2</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -9080,7 +8635,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Antoine 16-4</t>
+          <t>Whitestone 16-3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -9125,47 +8680,47 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
           <t>-2</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -9177,12 +8732,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Okanogan 16-46</t>
+          <t>Antoine 16-4</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9190,19 +8760,39 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9210,21 +8800,26 @@
           <t>5</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Okanogan Crosschannel 16-1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Okanogan 16-46</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9232,34 +8827,14 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -9269,17 +8844,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -9287,36 +8852,16 @@
           <t>5</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Okanogan Crosschannel 16-1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9326,12 +8871,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -9351,7 +8896,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -9361,12 +8906,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -9389,19 +8934,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q94" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9413,7 +8948,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Okanogan 16-22</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9423,12 +8958,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -9448,7 +8983,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -9458,7 +8993,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -9486,19 +9021,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q95" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9510,7 +9035,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Okanogan 16-22</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -9607,7 +9132,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Okanogan 16-21</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -9652,12 +9177,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -9704,7 +9229,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Okanogan 16-21</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -9749,12 +9274,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -9784,12 +9309,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9801,7 +9326,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Okanogan 16-27</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -9846,12 +9371,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -9881,12 +9406,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9898,7 +9423,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Stapaloop 16-2</t>
+          <t>Okanogan 16-27</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -9971,19 +9496,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9995,7 +9510,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Okanogan 16-8</t>
+          <t>Stapaloop 16-2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10005,12 +9520,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10040,12 +9555,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -10075,12 +9590,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -10092,7 +9607,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Okanogan 16-6</t>
+          <t>Okanogan 16-8</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10102,12 +9617,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -10165,19 +9680,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q102" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -10189,7 +9694,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Okanogan 16-5</t>
+          <t>Okanogan 16-6</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10199,12 +9704,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -10234,12 +9739,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -10286,7 +9791,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Okanogan 16-7</t>
+          <t>Okanogan 16-5</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10296,12 +9801,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -10331,12 +9836,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -10383,7 +9888,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Okanogan 16-4</t>
+          <t>Okanogan 16-7</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10428,12 +9933,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -10456,19 +9961,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q105" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10480,7 +9975,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Okanogan 16-3</t>
+          <t>Okanogan 16-4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10490,12 +9985,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -10525,12 +10020,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -10553,19 +10048,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q106" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10577,7 +10062,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Okanogan 16-1</t>
+          <t>Okanogan 16-3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -10622,12 +10107,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -10657,12 +10142,12 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -10674,7 +10159,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Okanogan 16-2</t>
+          <t>Okanogan 16-1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10719,12 +10204,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -10747,19 +10232,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q108" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -10771,7 +10246,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Okanogan 16-13</t>
+          <t>Okanogan 16-2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -10816,12 +10291,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -10844,19 +10319,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q109" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10868,7 +10333,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Okanogan 16-41</t>
+          <t>Okanogan 16-13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -10913,12 +10378,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -10941,19 +10406,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q110" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10965,7 +10420,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Okanogan 16-23</t>
+          <t>Okanogan 16-41</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -10975,12 +10430,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11038,19 +10493,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q111" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -11062,7 +10507,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Okanogan 16-26</t>
+          <t>Okanogan 16-23</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -11072,12 +10517,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11107,12 +10552,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -11159,7 +10604,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Omak 16-17</t>
+          <t>Okanogan 16-26</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -11169,12 +10614,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11239,12 +10684,12 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -11256,7 +10701,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Okanogan 16-12</t>
+          <t>Omak 16-17</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -11301,12 +10746,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -11336,12 +10781,12 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -11353,7 +10798,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Okanogan 16-11</t>
+          <t>Okanogan 16-12</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -11398,12 +10843,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -11450,7 +10895,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Okanogan 16-37</t>
+          <t>Okanogan 16-11</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -11460,12 +10905,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11495,12 +10940,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -11530,12 +10975,12 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -11547,7 +10992,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wanacut 16-2</t>
+          <t>Okanogan 16-37</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -11592,12 +11037,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -11620,19 +11065,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q117" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -11644,7 +11079,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Tunk 16-1</t>
+          <t>Wanacut 16-2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -11654,12 +11089,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11741,7 +11176,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Tonasket 16-1</t>
+          <t>Tunk 16-1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -11786,12 +11221,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -11838,7 +11273,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Tonasket 16-1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -11848,12 +11283,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -11911,19 +11346,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -11935,7 +11360,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Okanogan 16-16</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -11945,49 +11370,49 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>5</t>
@@ -12015,12 +11440,12 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -12032,7 +11457,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Okanogan 16-16</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -12042,12 +11467,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -12077,12 +11502,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -12129,7 +11554,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Johnson 16-8</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -12202,19 +11627,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q123" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -12226,7 +11641,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Okanagan 16-48</t>
+          <t>Johnson 16-8</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -12234,24 +11654,54 @@
           <t>5</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -12259,16 +11709,26 @@
           <t>5</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Q124" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Okanogan 16-47</t>
+          <t>Okanagan 16-48</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -12288,12 +11748,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -12305,27 +11765,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Okanogan 16-47</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12333,39 +11778,19 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -12373,69 +11798,136 @@
           <t>5</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q126" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>Similkameen 16-4</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>Siwash 16-1</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q127" t="inlineStr">
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
         <is>
           <t>5</t>
         </is>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -550,6 +550,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -647,6 +657,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -734,6 +754,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -831,6 +861,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -928,6 +968,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1025,6 +1075,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1112,6 +1172,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1209,6 +1279,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1306,6 +1386,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1393,6 +1483,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1480,6 +1580,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1567,6 +1677,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1664,6 +1784,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1751,6 +1881,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1838,6 +1978,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1935,6 +2085,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2022,6 +2182,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2109,6 +2279,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2196,6 +2376,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2293,6 +2483,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2390,6 +2590,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2487,6 +2697,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2584,6 +2804,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2753,6 +2983,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2840,6 +3080,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2937,6 +3187,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3034,6 +3294,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3121,6 +3391,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3218,6 +3498,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3315,6 +3605,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3412,6 +3712,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3499,6 +3809,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3586,6 +3906,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3683,6 +4013,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3780,6 +4120,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3867,6 +4217,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3954,6 +4314,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4051,6 +4421,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4148,6 +4528,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4245,6 +4635,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4342,6 +4742,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4429,6 +4839,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4516,6 +4936,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4613,6 +5043,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4710,6 +5150,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4797,6 +5247,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4894,6 +5354,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4981,6 +5451,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5078,6 +5558,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5175,6 +5665,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5262,6 +5762,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5359,6 +5869,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5446,6 +5966,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5543,6 +6073,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5630,6 +6170,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5727,6 +6277,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5824,6 +6384,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5911,6 +6481,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5998,6 +6578,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6095,6 +6685,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6182,6 +6782,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6279,6 +6889,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6376,6 +6996,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6463,6 +7093,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6550,6 +7190,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6647,6 +7297,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6734,6 +7394,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6831,6 +7501,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6918,6 +7598,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7005,6 +7695,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7092,6 +7792,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7189,6 +7899,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7276,6 +7996,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7373,6 +8103,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7547,6 +8287,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7634,6 +8384,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7721,6 +8481,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7818,6 +8588,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7905,6 +8685,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7992,6 +8782,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8079,6 +8879,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8166,6 +8976,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8263,6 +9083,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8350,6 +9180,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8447,6 +9287,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8544,6 +9394,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8631,6 +9491,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8728,6 +9598,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8815,6 +9695,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8857,6 +9747,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9031,6 +9926,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9128,6 +10033,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9225,6 +10140,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9322,6 +10247,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9419,6 +10354,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9506,6 +10451,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9603,6 +10558,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9690,6 +10655,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9787,6 +10762,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9884,6 +10869,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9971,6 +10966,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10058,6 +11063,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10155,6 +11170,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10242,6 +11267,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10329,6 +11364,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10416,6 +11461,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10503,6 +11558,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10600,6 +11665,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10697,6 +11772,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10794,6 +11879,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10891,6 +11986,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10988,6 +12093,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11075,6 +12190,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11172,6 +12297,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11269,6 +12404,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11356,6 +12501,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11453,6 +12608,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11550,6 +12715,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11637,6 +12812,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11724,6 +12909,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11803,6 +12998,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11890,6 +13090,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11930,6 +13140,11 @@
       <c r="Q128" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -550,16 +550,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,16 +647,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -754,16 +734,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -861,16 +831,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -968,16 +928,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1075,16 +1025,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1172,16 +1112,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1279,16 +1209,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1386,16 +1306,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1483,16 +1393,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1580,16 +1480,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1677,16 +1567,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1784,16 +1664,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1881,16 +1751,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1978,16 +1838,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2085,16 +1935,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2182,16 +2022,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2279,16 +2109,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2376,16 +2196,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2483,16 +2293,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2590,16 +2390,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2697,16 +2487,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2804,16 +2584,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2983,16 +2753,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3080,16 +2840,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3187,16 +2937,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3294,16 +3034,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3391,16 +3121,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3498,16 +3218,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3605,16 +3315,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3712,16 +3412,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3809,16 +3499,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3906,16 +3586,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4013,16 +3683,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4120,16 +3780,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4217,16 +3867,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4314,16 +3954,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4421,16 +4051,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4528,16 +4148,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4635,16 +4245,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4742,16 +4342,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4839,16 +4429,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4936,16 +4516,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5043,16 +4613,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5150,16 +4710,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5247,16 +4797,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5354,16 +4894,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5451,16 +4981,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5558,16 +5078,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5665,16 +5175,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5762,16 +5262,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5869,16 +5359,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5966,16 +5446,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6073,16 +5543,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6170,16 +5630,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6277,16 +5727,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6384,16 +5824,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6481,16 +5911,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6578,16 +5998,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6685,16 +6095,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6782,16 +6182,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6889,16 +6279,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6996,16 +6376,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7093,16 +6463,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7190,16 +6550,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7297,16 +6647,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7394,16 +6734,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7501,16 +6831,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7598,16 +6918,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7695,16 +7005,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7792,16 +7092,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7899,16 +7189,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7996,16 +7276,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8103,16 +7373,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8287,16 +7547,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8384,16 +7634,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8481,16 +7721,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8588,16 +7818,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8685,16 +7905,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8782,16 +7992,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8879,16 +8079,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8976,16 +8166,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9083,16 +8263,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9180,16 +8350,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9287,16 +8447,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9394,16 +8544,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9491,16 +8631,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9598,16 +8728,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9695,21 +8815,16 @@
           <t>5</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Okanogan 16-46</t>
+          <t>Okanogan Crosschannel 16-1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9717,14 +8832,34 @@
           <t>1</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -9734,7 +8869,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -9742,21 +8887,26 @@
           <t>5</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Okanogan Crosschannel 16-1</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -9766,12 +8916,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -9791,7 +8941,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -9801,12 +8951,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -9843,7 +8993,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Okanogan 16-22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -9878,7 +9028,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -9893,7 +9043,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -9916,31 +9066,31 @@
           <t>0</t>
         </is>
       </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q95" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Okanogan 16-22</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -10031,23 +9181,13 @@
       <c r="S96" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Okanogan 16-21</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -10138,23 +9278,13 @@
       <c r="S97" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Okanogan 16-21</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -10199,12 +9329,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -10234,34 +9364,24 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Okanogan 16-27</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -10306,12 +9426,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -10334,41 +9454,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Okanogan 16-27</t>
+          <t>Stapaloop 16-2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -10413,12 +9513,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -10441,31 +9541,31 @@
           <t>0</t>
         </is>
       </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Stapaloop 16-2</t>
+          <t>Okanogan 16-8</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -10475,12 +9575,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10510,12 +9610,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -10538,41 +9638,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Okanogan 16-8</t>
+          <t>Okanogan 16-6</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -10582,12 +9662,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -10617,12 +9697,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -10645,31 +9725,31 @@
           <t>0</t>
         </is>
       </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q102" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S102" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Okanogan 16-6</t>
+          <t>Okanogan 16-5</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -10679,12 +9759,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -10760,23 +9840,13 @@
       <c r="S103" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Okanogan 16-5</t>
+          <t>Okanogan 16-7</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10786,12 +9856,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -10849,41 +9919,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q104" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S104" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Okanogan 16-7</t>
+          <t>Okanogan 16-4</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10893,12 +9943,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -10964,23 +10014,13 @@
       <c r="S105" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Okanogan 16-4</t>
+          <t>Okanogan 16-3</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -11053,31 +10093,31 @@
           <t>0</t>
         </is>
       </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q106" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S106" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Okanogan 16-3</t>
+          <t>Okanogan 16-1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -11087,12 +10127,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11150,41 +10190,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q107" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S107" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Okanogan 16-1</t>
+          <t>Okanogan 16-2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -11265,23 +10285,13 @@
       <c r="S108" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Okanogan 16-2</t>
+          <t>Okanogan 16-13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -11362,23 +10372,13 @@
       <c r="S109" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Okanogan 16-13</t>
+          <t>Okanogan 16-41</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -11423,12 +10423,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -11459,23 +10459,13 @@
       <c r="S110" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Okanogan 16-41</t>
+          <t>Okanogan 16-23</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -11485,12 +10475,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11520,12 +10510,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -11548,31 +10538,31 @@
           <t>0</t>
         </is>
       </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q111" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S111" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Okanogan 16-23</t>
+          <t>Okanogan 16-26</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -11617,69 +10607,59 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S112" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Okanogan 16-26</t>
+          <t>Omak 16-17</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -11689,49 +10669,49 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>5</t>
@@ -11759,34 +10739,24 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Omak 16-17</t>
+          <t>Okanogan 16-12</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -11831,69 +10801,59 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="S114" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Okanogan 16-12</t>
+          <t>Okanogan 16-11</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -11903,12 +10863,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11984,23 +10944,13 @@
       <c r="S115" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Okanogan 16-11</t>
+          <t>Okanogan 16-37</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -12010,12 +10960,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -12045,12 +10995,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -12073,41 +11023,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Okanogan 16-37</t>
+          <t>Wanacut 16-2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -12152,12 +11082,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -12180,31 +11110,31 @@
           <t>0</t>
         </is>
       </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="Q117" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S117" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wanacut 16-2</t>
+          <t>Tunk 16-1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -12214,12 +11144,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -12295,23 +11225,13 @@
       <c r="S118" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Tunk 16-1</t>
+          <t>Tonasket 16-1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -12384,41 +11304,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q119" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S119" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Tonasket 16-1</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -12428,94 +11328,94 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="S120" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Okanogan 16-16</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -12525,12 +11425,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -12595,34 +11495,24 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U121" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Okanogan 16-16</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -12632,49 +11522,49 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>5</t>
@@ -12695,41 +11585,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Q122" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S122" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Johnson 16-8</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -12810,23 +11680,13 @@
       <c r="S123" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Johnson 16-8</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -12901,34 +11761,24 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Okanagan 16-48</t>
+          <t>Siwash 16-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -12952,6 +11802,11 @@
         </is>
       </c>
       <c r="N125" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -12960,12 +11815,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Okanogan 16-47</t>
+          <t>Okanagan 16-48</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12980,54 +11835,29 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Okanogan 16-47</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -13035,39 +11865,19 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -13075,36 +11885,16 @@
           <t>5</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Q127" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Siwash 16-1</t>
+          <t>Okanogan 16-46</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13119,17 +11909,17 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -13138,11 +11928,6 @@
         </is>
       </c>
       <c r="Q128" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -748,12 +748,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2767,12 +2767,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2951,12 +2951,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3513,12 +3513,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3794,12 +3794,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3968,12 +3968,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4065,12 +4065,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4162,12 +4162,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4356,12 +4356,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -7019,12 +7019,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7735,12 +7735,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -9575,12 +9575,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10475,12 +10475,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -10572,12 +10572,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -10863,12 +10863,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -492,12 +492,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -716,17 +716,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1094,17 +1094,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1462,17 +1462,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1733,17 +1733,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2004,17 +2004,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2091,17 +2091,17 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2178,17 +2178,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2245,34 +2245,34 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>-2</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>3</t>
@@ -2280,12 +2280,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2419,12 +2419,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2439,34 +2439,34 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>-2</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>5</t>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2556,12 +2556,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2653,12 +2653,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2832,7 +2837,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2924,12 +2929,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3113,7 +3118,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3205,12 +3210,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3302,12 +3307,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3399,12 +3404,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3578,7 +3583,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3635,12 +3640,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3670,12 +3675,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3767,12 +3772,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3859,7 +3864,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3946,7 +3951,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4038,12 +4043,12 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4135,12 +4140,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4232,12 +4237,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4329,12 +4334,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4508,7 +4513,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4585,12 +4590,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4600,12 +4605,12 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4697,12 +4702,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4789,7 +4794,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4881,12 +4886,12 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4973,7 +4978,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5065,12 +5070,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5162,12 +5167,12 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5254,7 +5259,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5346,12 +5351,12 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5438,7 +5443,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5530,12 +5535,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5622,7 +5627,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5714,12 +5719,12 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5811,12 +5816,12 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5903,7 +5908,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5990,7 +5995,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6082,12 +6087,12 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6174,7 +6179,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6266,12 +6271,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6308,12 +6313,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -6363,12 +6368,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6455,7 +6460,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6542,7 +6547,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6634,12 +6639,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6726,7 +6731,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6818,12 +6823,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -6900,17 +6905,17 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6997,7 +7002,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7084,7 +7089,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7176,12 +7181,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -7268,7 +7273,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7360,12 +7365,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7422,12 +7427,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -7453,6 +7458,16 @@
       <c r="P77" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7539,7 +7554,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7626,7 +7641,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7713,7 +7728,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -7805,12 +7820,12 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7887,17 +7902,17 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7984,7 +7999,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8041,37 +8056,37 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
           <t>-2</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8158,7 +8173,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8250,12 +8265,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -8419,12 +8434,12 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -8531,12 +8546,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8623,7 +8638,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8715,12 +8730,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8807,7 +8822,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -8864,12 +8879,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -8981,7 +8996,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9073,12 +9088,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9170,12 +9185,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -9267,12 +9282,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -9309,12 +9324,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -9329,12 +9344,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -9364,12 +9379,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9456,7 +9471,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9548,12 +9563,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9640,7 +9655,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9732,12 +9747,12 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9829,12 +9844,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -9921,7 +9936,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -10008,7 +10023,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10100,12 +10115,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10192,7 +10207,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -10279,7 +10294,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -10366,7 +10381,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10453,7 +10468,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10545,12 +10560,12 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -10642,12 +10657,12 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -10739,12 +10754,12 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -11025,7 +11040,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -11117,12 +11132,12 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -11214,12 +11229,12 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -11306,7 +11321,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -11495,12 +11510,12 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -11587,7 +11602,7 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -11674,7 +11689,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -11781,11 +11796,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>5</t>
@@ -11808,7 +11818,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11823,11 +11833,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>5</t>
@@ -11860,11 +11865,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>5</t>
@@ -11902,11 +11902,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>1</t>
@@ -11914,12 +11909,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -475,16 +475,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>3</t>
@@ -512,12 +502,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,16 +552,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>5</t>
@@ -659,16 +639,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>5</t>
@@ -696,12 +666,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -746,16 +716,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>5</t>
@@ -843,16 +803,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>5</t>
@@ -880,12 +830,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -940,16 +890,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>5</t>
@@ -977,12 +917,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1037,16 +977,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>5</t>
@@ -1074,12 +1004,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1124,16 +1054,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>5</t>
@@ -1161,12 +1081,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1221,16 +1141,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>5</t>
@@ -1258,12 +1168,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1318,16 +1228,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>5</t>
@@ -1405,16 +1305,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>5</t>
@@ -1492,16 +1382,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>5</t>
@@ -1579,16 +1459,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>5</t>
@@ -1676,16 +1546,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>5</t>
@@ -1763,16 +1623,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>5</t>
@@ -1800,12 +1650,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1850,16 +1700,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>5</t>
@@ -1887,12 +1727,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1947,16 +1787,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>5</t>
@@ -1984,12 +1814,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2034,16 +1864,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>5</t>
@@ -2121,16 +1941,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>5</t>
@@ -2208,16 +2018,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>5</t>
@@ -2305,16 +2105,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>5</t>
@@ -2402,16 +2192,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>5</t>
@@ -2439,12 +2219,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2499,16 +2279,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>5</t>
@@ -2536,12 +2306,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2596,16 +2366,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>5</t>
@@ -2633,12 +2393,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2683,16 +2443,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>5</t>
@@ -2720,12 +2470,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2770,16 +2520,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>5</t>
@@ -2807,12 +2547,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2857,16 +2597,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>5</t>
@@ -2894,12 +2624,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2954,16 +2684,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>5</t>
@@ -3051,16 +2771,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>5</t>
@@ -3138,16 +2848,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>5</t>
@@ -3235,16 +2935,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>5</t>
@@ -3332,16 +3022,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>5</t>
@@ -3369,12 +3049,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3429,16 +3109,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>5</t>
@@ -3466,12 +3136,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3516,16 +3186,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>5</t>
@@ -3553,12 +3213,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3603,16 +3263,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>5</t>
@@ -3700,16 +3350,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>5</t>
@@ -3797,16 +3437,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>5</t>
@@ -3884,16 +3514,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>5</t>
@@ -3921,12 +3541,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3971,16 +3591,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>5</t>
@@ -4068,16 +3678,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>5</t>
@@ -4165,16 +3765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>5</t>
@@ -4262,16 +3852,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>5</t>
@@ -4299,12 +3879,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4359,16 +3939,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>5</t>
@@ -4396,12 +3966,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4446,16 +4016,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>5</t>
@@ -4483,12 +4043,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4533,16 +4093,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>5</t>
@@ -4630,16 +4180,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>5</t>
@@ -4667,12 +4207,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4727,16 +4267,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>5</t>
@@ -4764,12 +4294,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4814,16 +4344,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>5</t>
@@ -4851,12 +4371,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4911,16 +4431,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>5</t>
@@ -4948,12 +4458,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4998,16 +4508,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>5</t>
@@ -5035,12 +4535,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -5095,16 +4595,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>5</t>
@@ -5132,12 +4622,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -5192,16 +4682,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>5</t>
@@ -5229,12 +4709,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -5279,16 +4759,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>5</t>
@@ -5316,12 +4786,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -5376,16 +4846,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>5</t>
@@ -5413,12 +4873,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5463,16 +4923,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>5</t>
@@ -5500,12 +4950,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5560,16 +5010,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>5</t>
@@ -5597,12 +5037,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -5647,16 +5087,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>5</t>
@@ -5744,16 +5174,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>5</t>
@@ -5781,12 +5201,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5841,16 +5261,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>5</t>
@@ -5878,12 +5288,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5928,16 +5338,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>5</t>
@@ -5965,12 +5365,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -6015,16 +5415,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>5</t>
@@ -6052,12 +5442,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -6112,16 +5502,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>5</t>
@@ -6149,12 +5529,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -6199,16 +5579,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>5</t>
@@ -6296,16 +5666,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>5</t>
@@ -6393,16 +5753,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>5</t>
@@ -6480,16 +5830,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>5</t>
@@ -6567,16 +5907,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>5</t>
@@ -6664,16 +5994,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>5</t>
@@ -6751,16 +6071,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>5</t>
@@ -6848,16 +6158,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>5</t>
@@ -6935,16 +6235,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>5</t>
@@ -7022,16 +6312,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>5</t>
@@ -7059,12 +6339,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -7109,16 +6389,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>5</t>
@@ -7146,12 +6416,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -7206,16 +6476,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>5</t>
@@ -7293,16 +6553,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>5</t>
@@ -7390,16 +6640,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>5</t>
@@ -7427,12 +6667,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -7487,16 +6727,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>5</t>
@@ -7524,12 +6754,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -7574,16 +6804,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>5</t>
@@ -7661,16 +6881,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>5</t>
@@ -7748,16 +6958,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>5</t>
@@ -7785,12 +6985,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -7845,16 +7045,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>5</t>
@@ -7882,12 +7072,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -7932,16 +7122,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>5</t>
@@ -8019,16 +7199,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>5</t>
@@ -8056,12 +7226,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -8106,16 +7276,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>5</t>
@@ -8193,16 +7353,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>5</t>
@@ -8290,16 +7440,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>5</t>
@@ -8327,12 +7467,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -8377,16 +7517,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>5</t>
@@ -8414,12 +7544,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -8474,16 +7604,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>5</t>
@@ -8571,16 +7691,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>5</t>
@@ -8658,16 +7768,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>5</t>
@@ -8695,12 +7795,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -8755,16 +7855,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>5</t>
@@ -8842,16 +7932,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>5</t>
@@ -8929,16 +8009,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>5</t>
@@ -9016,16 +8086,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>5</t>
@@ -9113,16 +8173,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>5</t>
@@ -9150,12 +8200,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -9210,16 +8260,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>5</t>
@@ -9307,16 +8347,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>5</t>
@@ -9404,16 +8434,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>5</t>
@@ -9491,16 +8511,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>5</t>
@@ -9528,12 +8538,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -9588,16 +8598,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>5</t>
@@ -9625,12 +8625,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -9675,16 +8675,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>5</t>
@@ -9712,12 +8702,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -9772,16 +8762,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>5</t>
@@ -9809,12 +8789,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9869,16 +8849,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>5</t>
@@ -9906,12 +8876,12 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -9956,16 +8926,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>5</t>
@@ -9993,12 +8953,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -10043,16 +9003,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>5</t>
@@ -10080,12 +9030,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -10140,16 +9090,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>5</t>
@@ -10177,12 +9117,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -10227,16 +9167,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>5</t>
@@ -10264,12 +9194,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -10314,16 +9244,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>5</t>
@@ -10351,12 +9271,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -10401,16 +9321,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>5</t>
@@ -10438,12 +9348,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -10488,16 +9398,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>5</t>
@@ -10525,12 +9425,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -10585,16 +9485,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>5</t>
@@ -10682,16 +9572,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>5</t>
@@ -10719,12 +9599,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -10779,16 +9659,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>5</t>
@@ -10816,12 +9686,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -10876,16 +9746,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>5</t>
@@ -10913,12 +9773,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -10973,16 +9833,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>5</t>
@@ -11010,12 +9860,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -11060,16 +9910,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>5</t>
@@ -11097,12 +9937,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -11157,16 +9997,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>5</t>
@@ -11194,12 +10024,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -11254,16 +10084,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>5</t>
@@ -11341,16 +10161,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>5</t>
@@ -11438,16 +10248,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>5</t>
@@ -11535,16 +10335,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>5</t>
@@ -11622,16 +10412,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>5</t>
@@ -11659,12 +10439,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -11709,16 +10489,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>5</t>
@@ -11791,11 +10561,6 @@
           <t>Siwash 16-1</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>5</t>
@@ -11828,11 +10593,6 @@
           <t>Okanagan 16-48</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>5</t>
@@ -11860,11 +10620,6 @@
           <t>Okanogan 16-47</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>5</t>
@@ -11872,12 +10627,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -11897,11 +10652,6 @@
           <t>Okanogan 16-46</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>1</t>
@@ -11909,12 +10659,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -502,12 +502,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -538,6 +538,16 @@
       <c r="S2" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -627,6 +637,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -666,12 +686,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -702,6 +722,16 @@
       <c r="S4" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -791,6 +821,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -830,12 +870,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -876,6 +916,16 @@
       <c r="S6" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -917,12 +967,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -963,6 +1013,16 @@
       <c r="S7" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1064,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1040,6 +1100,16 @@
       <c r="S8" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1151,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1127,6 +1197,16 @@
       <c r="S9" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1248,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1214,6 +1294,16 @@
       <c r="S10" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1293,6 +1383,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1370,6 +1470,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1447,6 +1557,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1534,6 +1654,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1611,6 +1741,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1650,14 +1790,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>1</t>
@@ -1686,6 +1826,16 @@
       <c r="S16" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1727,12 +1877,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1773,6 +1923,16 @@
       <c r="S17" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1814,12 +1974,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1850,6 +2010,16 @@
       <c r="S18" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1929,6 +2099,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2006,6 +2186,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2093,6 +2283,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2180,6 +2380,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2219,12 +2429,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2265,6 +2475,16 @@
       <c r="S23" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2306,12 +2526,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2352,6 +2572,16 @@
       <c r="S24" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2623,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2470,12 +2700,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2506,6 +2736,16 @@
       <c r="S26" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2787,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2583,6 +2823,16 @@
       <c r="S27" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2874,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2670,6 +2920,16 @@
       <c r="S28" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2759,6 +3019,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2836,6 +3106,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2923,6 +3203,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3010,6 +3300,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3049,14 +3349,14 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>5</t>
@@ -3095,6 +3395,16 @@
       <c r="S33" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3446,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3172,6 +3482,16 @@
       <c r="S34" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3533,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3249,6 +3569,16 @@
       <c r="S35" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3338,6 +3668,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3425,6 +3765,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3502,6 +3852,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3541,12 +3901,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3577,6 +3937,16 @@
       <c r="S39" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3666,6 +4036,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3753,6 +4133,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3840,6 +4230,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3879,12 +4279,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3925,6 +4325,16 @@
       <c r="S43" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3966,14 +4376,14 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>5</t>
@@ -4002,6 +4412,16 @@
       <c r="S44" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4043,14 +4463,14 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>5</t>
@@ -4079,6 +4499,16 @@
       <c r="S45" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4168,6 +4598,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4207,52 +4647,62 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S47" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4294,12 +4744,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4330,6 +4780,16 @@
       <c r="S48" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4371,52 +4831,62 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S49" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4458,12 +4928,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4494,6 +4964,16 @@
       <c r="S50" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4535,52 +5015,62 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="S51" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4622,12 +5112,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4668,6 +5158,16 @@
       <c r="S52" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4709,12 +5209,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4745,6 +5245,16 @@
       <c r="S53" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4786,12 +5296,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4832,6 +5342,16 @@
       <c r="S54" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4873,12 +5393,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4909,6 +5429,16 @@
       <c r="S55" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4950,12 +5480,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4996,6 +5526,16 @@
       <c r="S56" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5577,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -5073,6 +5613,16 @@
       <c r="S57" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5162,6 +5712,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5201,12 +5761,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5247,6 +5807,16 @@
       <c r="S59" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5288,12 +5858,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5324,6 +5894,16 @@
       <c r="S60" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5365,12 +5945,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5401,6 +5981,16 @@
       <c r="S61" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5442,12 +6032,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5488,6 +6078,16 @@
       <c r="S62" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5529,12 +6129,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5565,6 +6165,16 @@
       <c r="S63" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5654,6 +6264,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5741,6 +6361,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5818,6 +6448,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5895,6 +6535,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5982,6 +6632,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6059,6 +6719,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6146,6 +6816,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6223,6 +6903,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6300,6 +6990,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6339,12 +7039,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6375,6 +7075,16 @@
       <c r="S73" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6416,12 +7126,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6462,6 +7172,16 @@
       <c r="S74" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6541,6 +7261,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6628,6 +7358,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6667,12 +7407,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6754,14 +7494,14 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>5</t>
@@ -6790,6 +7530,16 @@
       <c r="S78" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -6869,6 +7619,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6946,6 +7706,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6985,12 +7755,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -7031,6 +7801,16 @@
       <c r="S81" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7072,34 +7852,34 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Q82" t="inlineStr">
         <is>
           <t>1</t>
@@ -7108,6 +7888,16 @@
       <c r="S82" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7187,6 +7977,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7226,12 +8026,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7262,6 +8062,16 @@
       <c r="S84" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7341,6 +8151,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7428,6 +8248,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7467,12 +8297,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7503,6 +8333,16 @@
       <c r="S87" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7544,34 +8384,34 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>1</t>
@@ -7590,6 +8430,16 @@
       <c r="S88" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7679,6 +8529,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7756,6 +8616,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7795,12 +8665,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7841,6 +8711,16 @@
       <c r="S91" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7920,6 +8800,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8074,6 +8964,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8161,6 +9061,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8200,12 +9110,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8246,6 +9156,16 @@
       <c r="S96" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8335,6 +9255,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8422,6 +9352,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8499,6 +9439,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8538,14 +9488,14 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>5</t>
@@ -8584,6 +9534,16 @@
       <c r="S100" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8625,12 +9585,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8661,6 +9621,16 @@
       <c r="S101" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8702,14 +9672,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>5</t>
@@ -8748,6 +9718,16 @@
       <c r="S102" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8789,14 +9769,14 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>5</t>
@@ -8835,6 +9815,16 @@
       <c r="S103" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8876,14 +9866,14 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>5</t>
@@ -8912,6 +9902,16 @@
       <c r="S104" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -8953,14 +9953,14 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>5</t>
@@ -8989,6 +9989,16 @@
       <c r="S105" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9030,14 +10040,14 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>5</t>
@@ -9076,6 +10086,16 @@
       <c r="S106" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9117,14 +10137,14 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>5</t>
@@ -9153,6 +10173,16 @@
       <c r="S107" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9194,14 +10224,14 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>5</t>
@@ -9230,6 +10260,16 @@
       <c r="S108" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9271,14 +10311,14 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>5</t>
@@ -9307,6 +10347,16 @@
       <c r="S109" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9348,12 +10398,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9384,6 +10434,16 @@
       <c r="S110" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9425,14 +10485,14 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>5</t>
@@ -9471,6 +10531,16 @@
       <c r="S111" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9560,6 +10630,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9599,12 +10679,12 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9645,6 +10725,16 @@
       <c r="S113" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9686,14 +10776,14 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>5</t>
@@ -9732,6 +10822,16 @@
       <c r="S114" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9773,14 +10873,14 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>5</t>
@@ -9819,6 +10919,16 @@
       <c r="S115" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9860,12 +10970,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9896,6 +11006,16 @@
       <c r="S116" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9937,12 +11057,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9983,6 +11103,16 @@
       <c r="S117" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10024,12 +11154,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -10070,6 +11200,16 @@
       <c r="S118" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10149,6 +11289,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10236,6 +11386,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10323,6 +11483,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10400,6 +11570,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10439,12 +11619,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -10475,6 +11655,16 @@
       <c r="S123" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -10554,6 +11744,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10586,6 +11786,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10627,12 +11832,12 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -10641,6 +11846,11 @@
         </is>
       </c>
       <c r="Q127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -10659,12 +11869,12 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -10673,6 +11883,11 @@
         </is>
       </c>
       <c r="Q128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -89,249 +89,789 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeneas 16-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.883901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.116099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeneas 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Aeneas 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeneas 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2</t>
+    <t xml:space="preserve">40.220008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.220008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.167836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.167836</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnson 16-2</t>
+    <t xml:space="preserve">23.318882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.318882</t>
   </si>
   <si>
     <t xml:space="preserve">Johnson 16-4</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.038093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.038093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.586945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.586945</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 16-5</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.198164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.198164</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 16-6</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.284318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.284318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.419269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.419269</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 16-9</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.818937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.818937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.207601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.792399</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ninemile 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">7.185434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.185434</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-20</t>
   </si>
   <si>
+    <t xml:space="preserve">8.399532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.399532</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-28</t>
   </si>
   <si>
+    <t xml:space="preserve">21.319829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.319829</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-29</t>
   </si>
   <si>
+    <t xml:space="preserve">15.03766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.03766</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-30</t>
   </si>
   <si>
+    <t xml:space="preserve">10.777367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.777367</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-33</t>
   </si>
   <si>
+    <t xml:space="preserve">30.224104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.224104</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-16</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.320459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.320459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.116269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.116269</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.167493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.167493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.749198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.749198</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-10</t>
   </si>
   <si>
+    <t xml:space="preserve">57.501111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.501111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-12</t>
   </si>
   <si>
+    <t xml:space="preserve">69.399166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-64.399166</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">39.432166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.432166</t>
+  </si>
+  <si>
     <t xml:space="preserve">Similkameen 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">22.334777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.334777</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stapaloop 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trail 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">60.116413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-55.116413</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wildhorse 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.739508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.739508</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bonaparte 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">4.431316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568684</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">4.167836</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 16-7</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.129048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.129048</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loup Loup 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.091101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.091101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-18</t>
   </si>
   <si>
+    <t xml:space="preserve">12.680162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.680162</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-19</t>
   </si>
   <si>
+    <t xml:space="preserve">10.624378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.624378</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-24</t>
   </si>
   <si>
+    <t xml:space="preserve">19.039375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.039375</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-25</t>
   </si>
   <si>
+    <t xml:space="preserve">18.344177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.344177</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-32</t>
   </si>
   <si>
+    <t xml:space="preserve">7.178187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.178187</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-35</t>
   </si>
   <si>
+    <t xml:space="preserve">3.69989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-43</t>
   </si>
   <si>
+    <t xml:space="preserve">51.496512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.496512</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antoine 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">-4</t>
+    <t xml:space="preserve">42.667939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.667939</t>
   </si>
   <si>
     <t xml:space="preserve">Antoine 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">4.133879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866121</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.361218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.361218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.099974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.099974</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loup Loup 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.001838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.001838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.541966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.458034</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ninemile 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">44.49451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.49451</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ninemile 16-4</t>
   </si>
   <si>
+    <t xml:space="preserve">29.81346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.81346</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ninemile 16-5</t>
   </si>
   <si>
+    <t xml:space="preserve">63.43833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58.43833</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-10</t>
   </si>
   <si>
+    <t xml:space="preserve">10.611857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.611857</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-14</t>
   </si>
   <si>
+    <t xml:space="preserve">2.714168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.285832</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-15</t>
   </si>
   <si>
+    <t xml:space="preserve">12.259213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.259213</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-34</t>
   </si>
   <si>
+    <t xml:space="preserve">12.315478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.315478</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-38</t>
   </si>
   <si>
+    <t xml:space="preserve">2.879278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.120722</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-39</t>
   </si>
   <si>
+    <t xml:space="preserve">4.444302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555698</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-40</t>
   </si>
   <si>
+    <t xml:space="preserve">8.058882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.058882</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-42</t>
   </si>
   <si>
+    <t xml:space="preserve">8.633381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.633381</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-10</t>
   </si>
   <si>
+    <t xml:space="preserve">28.915945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.915945</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-11</t>
   </si>
   <si>
+    <t xml:space="preserve">25.521589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.521589</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-12</t>
   </si>
   <si>
+    <t xml:space="preserve">29.244194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.244194</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-13</t>
   </si>
   <si>
+    <t xml:space="preserve">29.029811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.029811</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-14</t>
   </si>
   <si>
+    <t xml:space="preserve">38.922077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.922077</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-15</t>
   </si>
   <si>
+    <t xml:space="preserve">57.298958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.298958</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.338789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.338789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.409017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.409017</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-5</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.122712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.122712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.486659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.486659</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-6</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.749857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.749857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.224081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.224081</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-7</t>
   </si>
   <si>
+    <t xml:space="preserve">24.915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.915771</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-8</t>
   </si>
   <si>
+    <t xml:space="preserve">23.978974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.978974</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-9</t>
   </si>
   <si>
+    <t xml:space="preserve">32.489758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.489758</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-11</t>
   </si>
   <si>
+    <t xml:space="preserve">65.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.32</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">6.366515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.366515</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-4</t>
   </si>
   <si>
+    <t xml:space="preserve">12.676689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.676689</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-6</t>
   </si>
   <si>
+    <t xml:space="preserve">9.28912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.28912</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-7</t>
   </si>
   <si>
+    <t xml:space="preserve">24.533978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.533978</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-8</t>
   </si>
   <si>
+    <t xml:space="preserve">37.185839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.185839</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-9</t>
   </si>
   <si>
+    <t xml:space="preserve">12.88148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.88148</t>
+  </si>
+  <si>
     <t xml:space="preserve">Similkameen 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">14.48071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.48071</t>
+  </si>
+  <si>
     <t xml:space="preserve">Similkameen 16-6</t>
   </si>
   <si>
+    <t xml:space="preserve">3.916658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.083342</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tonasket 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">54.08154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.08154</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wanacut 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.510195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.510195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.612419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.612419</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ninemile 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">39.483907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.483907</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-5</t>
   </si>
   <si>
+    <t xml:space="preserve">1.791237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.208763</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wildhorse 16-1</t>
   </si>
   <si>
     <t xml:space="preserve">Okanogan 16-9</t>
   </si>
   <si>
+    <t xml:space="preserve">16.426704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.426704</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antoine 16-5</t>
   </si>
   <si>
@@ -341,36 +881,120 @@
     <t xml:space="preserve">Loup Loup 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.155952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.155952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.044769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.044769</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-36</t>
   </si>
   <si>
+    <t xml:space="preserve">5.858772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.858772</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">2.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95</t>
+  </si>
+  <si>
     <t xml:space="preserve">Swimptkin 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-17</t>
   </si>
   <si>
+    <t xml:space="preserve">9.643599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.643599</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-31</t>
   </si>
   <si>
+    <t xml:space="preserve">16.211749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.211749</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-44</t>
   </si>
   <si>
+    <t xml:space="preserve">49.736718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.736718</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-45</t>
   </si>
   <si>
+    <t xml:space="preserve">28.705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.705688</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whitestone 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.245682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.245682</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whitestone 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">15.658403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.658403</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whitestone 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.312591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.312591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.664103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19.664103</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antoine 16-4</t>
   </si>
   <si>
@@ -380,42 +1004,126 @@
     <t xml:space="preserve">Salmon 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.038908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.961092</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-22</t>
   </si>
   <si>
+    <t xml:space="preserve">11.500863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.500863</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-4</t>
   </si>
   <si>
+    <t xml:space="preserve">7.709108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.709108</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-21</t>
   </si>
   <si>
+    <t xml:space="preserve">1.372949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.627051</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-13</t>
   </si>
   <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-27</t>
   </si>
   <si>
+    <t xml:space="preserve">13.734772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.734772</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stapaloop 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.933066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.066934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.208981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.208981</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-8</t>
   </si>
   <si>
+    <t xml:space="preserve">14.498021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.498021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-6</t>
   </si>
   <si>
+    <t xml:space="preserve">1.743868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.256132</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-5</t>
   </si>
   <si>
+    <t xml:space="preserve">5.001879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00187899999999974</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-7</t>
   </si>
   <si>
+    <t xml:space="preserve">5.699037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.699037</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.885137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.114863</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.310684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.689316</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-1</t>
   </si>
   <si>
@@ -425,61 +1133,184 @@
     <t xml:space="preserve">Okanogan 16-13</t>
   </si>
   <si>
+    <t xml:space="preserve">11.770441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.770441</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-41</t>
   </si>
   <si>
+    <t xml:space="preserve">5.795601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.795601</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-23</t>
   </si>
   <si>
+    <t xml:space="preserve">11.570154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.570154</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-26</t>
   </si>
   <si>
+    <t xml:space="preserve">4.79027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20973</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omak 16-17</t>
   </si>
   <si>
+    <t xml:space="preserve">64.036407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.036407</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-12</t>
   </si>
   <si>
+    <t xml:space="preserve">6.683645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.683645</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-11</t>
   </si>
   <si>
+    <t xml:space="preserve">8.518896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.518896</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-37</t>
   </si>
   <si>
+    <t xml:space="preserve">3.544872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.455128</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wanacut 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.026593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.026593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.064606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.064606</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tunk 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.175686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.175686</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tonasket 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">34.769475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.769475</t>
+  </si>
+  <si>
     <t xml:space="preserve">Similkameen 16-5</t>
   </si>
   <si>
+    <t xml:space="preserve">9.095121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.095121</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-16</t>
   </si>
   <si>
+    <t xml:space="preserve">5.55604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.55604</t>
+  </si>
+  <si>
     <t xml:space="preserve">Similkameen 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">12.445966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.445966</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johnson 16-8</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.245174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.245174</t>
+  </si>
+  <si>
     <t xml:space="preserve">Similkameen 16-4</t>
   </si>
   <si>
+    <t xml:space="preserve">11.049122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.049122</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siwash 16-1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.940889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.059111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.005689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.323531</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanagan 16-48</t>
   </si>
   <si>
     <t xml:space="preserve">Okanogan 16-47</t>
   </si>
   <si>
+    <t xml:space="preserve">13.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okanogan 16-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.795047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
   </si>
 </sst>
 </file>
@@ -920,22 +1751,22 @@
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R2"/>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -952,16 +1783,16 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -979,24 +1810,24 @@
         <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
         <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1019,41 +1850,41 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R4"/>
       <c r="S4" t="s">
         <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1076,45 +1907,45 @@
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
         <v>22</v>
       </c>
       <c r="T5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1137,10 +1968,10 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1158,24 +1989,24 @@
         <v>23</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6" t="s">
         <v>22</v>
       </c>
       <c r="T6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1192,25 +2023,25 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
@@ -1219,24 +2050,24 @@
         <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
       <c r="T7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1259,41 +2090,41 @@
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R8"/>
       <c r="S8" t="s">
         <v>22</v>
       </c>
       <c r="T8" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1316,10 +2147,10 @@
         <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -1337,24 +2168,24 @@
         <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1377,10 +2208,10 @@
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -1398,24 +2229,24 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="U10" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1438,41 +2269,41 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R11"/>
       <c r="S11" t="s">
         <v>22</v>
       </c>
       <c r="T11" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="U11" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1489,13 +2320,13 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
@@ -1514,22 +2345,22 @@
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R12"/>
       <c r="S12" t="s">
         <v>22</v>
       </c>
       <c r="T12" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1552,41 +2383,41 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R13"/>
       <c r="S13" t="s">
         <v>22</v>
       </c>
       <c r="T13" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1609,10 +2440,10 @@
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -1621,16 +2452,16 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R14" t="s">
         <v>24</v>
@@ -1639,15 +2470,15 @@
         <v>22</v>
       </c>
       <c r="T14" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1670,41 +2501,41 @@
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R15"/>
       <c r="S15" t="s">
         <v>22</v>
       </c>
       <c r="T15" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -1727,41 +2558,41 @@
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R16"/>
       <c r="S16" t="s">
         <v>22</v>
       </c>
       <c r="T16" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="U16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1784,10 +2615,10 @@
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -1805,24 +2636,24 @@
         <v>22</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
       <c r="T17" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="U17" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1839,47 +2670,47 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N18" t="s">
         <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R18"/>
       <c r="S18" t="s">
         <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="U18" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1890,10 +2721,10 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -1902,41 +2733,41 @@
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N19" t="s">
         <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R19"/>
       <c r="S19" t="s">
         <v>22</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="U19" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1959,41 +2790,41 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N20" t="s">
         <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R20"/>
       <c r="S20" t="s">
         <v>22</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2010,51 +2841,51 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N21" t="s">
         <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" t="s">
         <v>23</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S21" t="s">
         <v>22</v>
       </c>
       <c r="T21" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="U21" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2077,10 +2908,10 @@
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2098,24 +2929,24 @@
         <v>23</v>
       </c>
       <c r="Q22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>22</v>
       </c>
       <c r="T22" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="U22" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2129,54 +2960,54 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" t="s">
         <v>31</v>
       </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" t="s">
-        <v>30</v>
-      </c>
       <c r="P23" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S23" t="s">
         <v>22</v>
       </c>
       <c r="T23" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="U23" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -2190,7 +3021,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -2199,19 +3030,19 @@
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
@@ -2220,24 +3051,24 @@
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S24" t="s">
         <v>22</v>
       </c>
       <c r="T24" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="U24" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2254,16 +3085,16 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -2290,7 +3121,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2313,10 +3144,10 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -2332,22 +3163,22 @@
       </c>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R26"/>
       <c r="S26" t="s">
         <v>22</v>
       </c>
       <c r="T26" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="U26" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2364,16 +3195,16 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -2385,26 +3216,26 @@
         <v>22</v>
       </c>
       <c r="O27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R27"/>
       <c r="S27" t="s">
         <v>22</v>
       </c>
       <c r="T27" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="U27" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2427,10 +3258,10 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -2442,30 +3273,30 @@
         <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P28" t="s">
         <v>22</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S28" t="s">
         <v>22</v>
       </c>
       <c r="T28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2482,16 +3313,16 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
         <v>23</v>
@@ -2503,30 +3334,30 @@
         <v>22</v>
       </c>
       <c r="O29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P29" t="s">
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S29" t="s">
         <v>22</v>
       </c>
       <c r="T29" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="U29" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -2549,10 +3380,10 @@
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -2568,22 +3399,22 @@
       </c>
       <c r="P30"/>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R30"/>
       <c r="S30" t="s">
         <v>23</v>
       </c>
       <c r="T30" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="U30" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2606,10 +3437,10 @@
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -2624,10 +3455,10 @@
         <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R31" t="s">
         <v>24</v>
@@ -2636,15 +3467,15 @@
         <v>22</v>
       </c>
       <c r="T31" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="U31" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2667,10 +3498,10 @@
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -2688,24 +3519,24 @@
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S32" t="s">
         <v>22</v>
       </c>
       <c r="T32" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="U32" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -2728,10 +3559,10 @@
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -2746,10 +3577,10 @@
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q33" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R33" t="s">
         <v>24</v>
@@ -2758,15 +3589,15 @@
         <v>22</v>
       </c>
       <c r="T33" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="U33" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -2789,10 +3620,10 @@
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -2808,22 +3639,22 @@
       </c>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R34"/>
       <c r="S34" t="s">
         <v>22</v>
       </c>
       <c r="T34" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="U34" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -2846,10 +3677,10 @@
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -2865,22 +3696,22 @@
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R35"/>
       <c r="S35" t="s">
         <v>22</v>
       </c>
       <c r="T35" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="U35" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -2924,24 +3755,24 @@
         <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S36" t="s">
         <v>22</v>
       </c>
       <c r="T36" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="U36" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2964,45 +3795,45 @@
         <v>22</v>
       </c>
       <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
         <v>25</v>
       </c>
-      <c r="K37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" t="s">
-        <v>64</v>
-      </c>
       <c r="P37" t="s">
         <v>22</v>
       </c>
       <c r="Q37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S37" t="s">
         <v>22</v>
       </c>
       <c r="T37" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="U37" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -3025,10 +3856,10 @@
         <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3040,26 +3871,26 @@
         <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R38"/>
       <c r="S38" t="s">
         <v>22</v>
       </c>
       <c r="T38" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="U38" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -3082,10 +3913,10 @@
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -3101,22 +3932,22 @@
       </c>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R39"/>
       <c r="S39" t="s">
         <v>22</v>
       </c>
       <c r="T39" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="U39" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -3139,10 +3970,10 @@
         <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s">
         <v>22</v>
@@ -3160,24 +3991,24 @@
         <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S40" t="s">
         <v>22</v>
       </c>
       <c r="T40" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="U40" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -3200,10 +4031,10 @@
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L41" t="s">
         <v>22</v>
@@ -3221,24 +4052,24 @@
         <v>22</v>
       </c>
       <c r="Q41" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S41" t="s">
         <v>22</v>
       </c>
       <c r="T41" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="U41" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -3261,10 +4092,10 @@
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
@@ -3282,24 +4113,24 @@
         <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S42" t="s">
         <v>22</v>
       </c>
       <c r="T42" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="U42" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -3322,10 +4153,10 @@
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
         <v>22</v>
@@ -3343,24 +4174,24 @@
         <v>22</v>
       </c>
       <c r="Q43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S43" t="s">
         <v>22</v>
       </c>
       <c r="T43" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="U43" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -3383,10 +4214,10 @@
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
         <v>22</v>
@@ -3402,22 +4233,22 @@
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R44"/>
       <c r="S44" t="s">
         <v>22</v>
       </c>
       <c r="T44" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="U44" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -3440,10 +4271,10 @@
         <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
         <v>22</v>
@@ -3459,22 +4290,22 @@
       </c>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R45"/>
       <c r="S45" t="s">
         <v>22</v>
       </c>
       <c r="T45" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="U45" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -3491,13 +4322,13 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K46" t="s">
         <v>24</v>
@@ -3509,16 +4340,16 @@
         <v>23</v>
       </c>
       <c r="N46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O46" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R46" t="s">
         <v>24</v>
@@ -3527,15 +4358,15 @@
         <v>22</v>
       </c>
       <c r="T46" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="U46" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -3558,10 +4389,10 @@
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s">
         <v>22</v>
@@ -3579,24 +4410,24 @@
         <v>23</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R47" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S47" t="s">
         <v>22</v>
       </c>
       <c r="T47" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="U47" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -3619,10 +4450,10 @@
         <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
@@ -3638,22 +4469,22 @@
       </c>
       <c r="P48"/>
       <c r="Q48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R48"/>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="U48" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -3676,10 +4507,10 @@
         <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -3697,24 +4528,24 @@
         <v>23</v>
       </c>
       <c r="Q49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R49" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S49" t="s">
         <v>22</v>
       </c>
       <c r="T49" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="U49" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -3737,10 +4568,10 @@
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L50" t="s">
         <v>22</v>
@@ -3756,22 +4587,22 @@
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R50"/>
       <c r="S50" t="s">
         <v>22</v>
       </c>
       <c r="T50" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="U50" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -3794,10 +4625,10 @@
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -3809,30 +4640,30 @@
         <v>22</v>
       </c>
       <c r="O51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P51" t="s">
         <v>23</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R51" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S51" t="s">
         <v>22</v>
       </c>
       <c r="T51" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="U51" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -3855,10 +4686,10 @@
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
@@ -3876,24 +4707,24 @@
         <v>22</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S52" t="s">
         <v>22</v>
       </c>
       <c r="T52" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="U52" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -3916,10 +4747,10 @@
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
         <v>22</v>
@@ -3935,22 +4766,22 @@
       </c>
       <c r="P53"/>
       <c r="Q53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R53"/>
       <c r="S53" t="s">
         <v>22</v>
       </c>
       <c r="T53" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="U53" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -3973,10 +4804,10 @@
         <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
         <v>22</v>
@@ -3994,24 +4825,24 @@
         <v>22</v>
       </c>
       <c r="Q54" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S54" t="s">
         <v>22</v>
       </c>
       <c r="T54" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="U54" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -4034,10 +4865,10 @@
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
@@ -4053,22 +4884,22 @@
       </c>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R55"/>
       <c r="S55" t="s">
         <v>22</v>
       </c>
       <c r="T55" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="U55" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
@@ -4091,10 +4922,10 @@
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
         <v>22</v>
@@ -4112,24 +4943,24 @@
         <v>22</v>
       </c>
       <c r="Q56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S56" t="s">
         <v>22</v>
       </c>
       <c r="T56" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="U56" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
@@ -4152,10 +4983,10 @@
         <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
@@ -4171,22 +5002,22 @@
       </c>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57"/>
       <c r="S57" t="s">
         <v>22</v>
       </c>
       <c r="T57" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="U57" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -4209,45 +5040,45 @@
         <v>22</v>
       </c>
       <c r="J58" t="s">
+        <v>218</v>
+      </c>
+      <c r="K58" t="s">
+        <v>219</v>
+      </c>
+      <c r="L58" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" t="s">
         <v>25</v>
       </c>
-      <c r="K58" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" t="s">
-        <v>22</v>
-      </c>
-      <c r="O58" t="s">
-        <v>64</v>
-      </c>
       <c r="P58" t="s">
         <v>23</v>
       </c>
       <c r="Q58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R58" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S58" t="s">
         <v>22</v>
       </c>
       <c r="T58" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="U58" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -4270,10 +5101,10 @@
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -4285,30 +5116,30 @@
         <v>22</v>
       </c>
       <c r="O59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P59" t="s">
         <v>23</v>
       </c>
       <c r="Q59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R59" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S59" t="s">
         <v>22</v>
       </c>
       <c r="T59" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="U59" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -4331,10 +5162,10 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="K60" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4346,26 +5177,26 @@
         <v>22</v>
       </c>
       <c r="O60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R60"/>
       <c r="S60" t="s">
         <v>22</v>
       </c>
       <c r="T60" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="U60" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -4388,10 +5219,10 @@
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -4403,26 +5234,26 @@
         <v>22</v>
       </c>
       <c r="O61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P61"/>
       <c r="Q61" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R61"/>
       <c r="S61" t="s">
         <v>22</v>
       </c>
       <c r="T61" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="U61" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -4445,10 +5276,10 @@
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4460,30 +5291,30 @@
         <v>22</v>
       </c>
       <c r="O62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P62" t="s">
         <v>22</v>
       </c>
       <c r="Q62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S62" t="s">
         <v>22</v>
       </c>
       <c r="T62" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="U62" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -4506,10 +5337,10 @@
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -4521,26 +5352,26 @@
         <v>22</v>
       </c>
       <c r="O63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P63"/>
       <c r="Q63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R63"/>
       <c r="S63" t="s">
         <v>22</v>
       </c>
       <c r="T63" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="U63" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -4563,45 +5394,45 @@
         <v>22</v>
       </c>
       <c r="J64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" t="s">
+        <v>39</v>
+      </c>
+      <c r="L64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" t="s">
         <v>25</v>
       </c>
-      <c r="K64" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" t="s">
-        <v>25</v>
-      </c>
-      <c r="M64" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" t="s">
-        <v>64</v>
-      </c>
       <c r="P64" t="s">
         <v>22</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S64" t="s">
         <v>22</v>
       </c>
       <c r="T64" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="U64" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -4615,54 +5446,54 @@
         <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" t="s">
         <v>25</v>
       </c>
-      <c r="I65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" t="s">
-        <v>25</v>
-      </c>
-      <c r="K65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65" t="s">
-        <v>25</v>
-      </c>
-      <c r="M65" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" t="s">
-        <v>64</v>
-      </c>
       <c r="P65" t="s">
         <v>22</v>
       </c>
       <c r="Q65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S65" t="s">
         <v>22</v>
       </c>
       <c r="T65" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="U65" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -4685,41 +5516,41 @@
         <v>22</v>
       </c>
       <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" t="s">
+        <v>30</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" t="s">
         <v>25</v>
-      </c>
-      <c r="K66" t="s">
-        <v>26</v>
-      </c>
-      <c r="L66" t="s">
-        <v>25</v>
-      </c>
-      <c r="M66" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" t="s">
-        <v>22</v>
-      </c>
-      <c r="O66" t="s">
-        <v>64</v>
       </c>
       <c r="P66"/>
       <c r="Q66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R66"/>
       <c r="S66" t="s">
         <v>22</v>
       </c>
       <c r="T66" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="U66" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -4742,10 +5573,10 @@
         <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K67" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4757,26 +5588,26 @@
         <v>22</v>
       </c>
       <c r="O67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P67"/>
       <c r="Q67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R67"/>
       <c r="S67" t="s">
         <v>22</v>
       </c>
       <c r="T67" t="s">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="U67" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -4799,45 +5630,45 @@
         <v>22</v>
       </c>
       <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" t="s">
+        <v>30</v>
+      </c>
+      <c r="M68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" t="s">
         <v>25</v>
       </c>
-      <c r="K68" t="s">
-        <v>26</v>
-      </c>
-      <c r="L68" t="s">
-        <v>25</v>
-      </c>
-      <c r="M68" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" t="s">
-        <v>22</v>
-      </c>
-      <c r="O68" t="s">
-        <v>64</v>
-      </c>
       <c r="P68" t="s">
         <v>22</v>
       </c>
       <c r="Q68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S68" t="s">
         <v>22</v>
       </c>
       <c r="T68" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="U68" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -4860,41 +5691,41 @@
         <v>22</v>
       </c>
       <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>39</v>
+      </c>
+      <c r="L69" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" t="s">
         <v>25</v>
-      </c>
-      <c r="K69" t="s">
-        <v>26</v>
-      </c>
-      <c r="L69" t="s">
-        <v>25</v>
-      </c>
-      <c r="M69" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" t="s">
-        <v>22</v>
-      </c>
-      <c r="O69" t="s">
-        <v>64</v>
       </c>
       <c r="P69"/>
       <c r="Q69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R69"/>
       <c r="S69" t="s">
         <v>22</v>
       </c>
       <c r="T69" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="U69" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -4917,45 +5748,45 @@
         <v>22</v>
       </c>
       <c r="J70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" t="s">
+        <v>39</v>
+      </c>
+      <c r="L70" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" t="s">
+        <v>30</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" t="s">
         <v>25</v>
       </c>
-      <c r="K70" t="s">
-        <v>26</v>
-      </c>
-      <c r="L70" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" t="s">
-        <v>64</v>
-      </c>
       <c r="P70" t="s">
         <v>22</v>
       </c>
       <c r="Q70" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S70" t="s">
         <v>22</v>
       </c>
       <c r="T70" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="U70" t="s">
-        <v>26</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -4978,10 +5809,10 @@
         <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K71" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L71" t="s">
         <v>22</v>
@@ -4993,26 +5824,26 @@
         <v>23</v>
       </c>
       <c r="O71" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P71"/>
       <c r="Q71" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R71"/>
       <c r="S71" t="s">
         <v>22</v>
       </c>
       <c r="T71" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="U71" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -5035,10 +5866,10 @@
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K72" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L72" t="s">
         <v>22</v>
@@ -5054,22 +5885,22 @@
       </c>
       <c r="P72"/>
       <c r="Q72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R72"/>
       <c r="S72" t="s">
         <v>22</v>
       </c>
       <c r="T72" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="U72" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -5092,10 +5923,10 @@
         <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K73" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
@@ -5111,22 +5942,22 @@
       </c>
       <c r="P73"/>
       <c r="Q73" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R73"/>
       <c r="S73" t="s">
         <v>22</v>
       </c>
       <c r="T73" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="U73" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -5143,16 +5974,16 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -5170,24 +6001,24 @@
         <v>22</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S74" t="s">
         <v>22</v>
       </c>
       <c r="T74" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="U74" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -5210,10 +6041,10 @@
         <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
@@ -5229,22 +6060,22 @@
       </c>
       <c r="P75"/>
       <c r="Q75" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R75"/>
       <c r="S75" t="s">
         <v>22</v>
       </c>
       <c r="T75" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="U75" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -5267,10 +6098,10 @@
         <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K76" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -5288,24 +6119,24 @@
         <v>22</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S76" t="s">
         <v>22</v>
       </c>
       <c r="T76" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="U76" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -5322,16 +6153,16 @@
         <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K77" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -5362,7 +6193,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -5385,10 +6216,10 @@
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
@@ -5404,22 +6235,22 @@
       </c>
       <c r="P78"/>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R78"/>
       <c r="S78" t="s">
         <v>22</v>
       </c>
       <c r="T78" t="s">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="U78" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -5436,13 +6267,13 @@
         <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K79" t="s">
         <v>24</v>
@@ -5457,26 +6288,26 @@
         <v>22</v>
       </c>
       <c r="O79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P79"/>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R79"/>
       <c r="S79" t="s">
         <v>22</v>
       </c>
       <c r="T79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U79" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -5499,10 +6330,10 @@
         <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K80" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L80" t="s">
         <v>23</v>
@@ -5514,26 +6345,26 @@
         <v>22</v>
       </c>
       <c r="O80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P80"/>
       <c r="Q80" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R80"/>
       <c r="S80" t="s">
         <v>22</v>
       </c>
       <c r="T80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U80" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -5556,45 +6387,45 @@
         <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="K81" t="s">
+        <v>290</v>
+      </c>
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" t="s">
         <v>31</v>
       </c>
-      <c r="L81" t="s">
-        <v>23</v>
-      </c>
-      <c r="M81" t="s">
-        <v>23</v>
-      </c>
-      <c r="N81" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" t="s">
-        <v>30</v>
-      </c>
       <c r="P81" t="s">
         <v>22</v>
       </c>
       <c r="Q81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S81" t="s">
         <v>22</v>
       </c>
       <c r="T81" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="U81" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -5617,10 +6448,10 @@
         <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -5629,29 +6460,29 @@
         <v>23</v>
       </c>
       <c r="N82" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P82"/>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R82"/>
       <c r="S82" t="s">
         <v>22</v>
       </c>
       <c r="T82" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="U82" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
@@ -5674,10 +6505,10 @@
         <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K83" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L83" t="s">
         <v>23</v>
@@ -5689,26 +6520,26 @@
         <v>22</v>
       </c>
       <c r="O83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P83"/>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R83"/>
       <c r="S83" t="s">
         <v>22</v>
       </c>
       <c r="T83" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="U83" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
@@ -5725,16 +6556,16 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K84" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L84" t="s">
         <v>23</v>
@@ -5746,26 +6577,26 @@
         <v>22</v>
       </c>
       <c r="O84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P84"/>
       <c r="Q84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R84"/>
       <c r="S84" t="s">
         <v>22</v>
       </c>
       <c r="T84" t="s">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="U84" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
@@ -5788,10 +6619,10 @@
         <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
@@ -5807,22 +6638,22 @@
       </c>
       <c r="P85"/>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R85"/>
       <c r="S85" t="s">
         <v>22</v>
       </c>
       <c r="T85" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="U85" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
@@ -5845,10 +6676,10 @@
         <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
@@ -5866,24 +6697,24 @@
         <v>23</v>
       </c>
       <c r="Q86" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R86" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S86" t="s">
         <v>22</v>
       </c>
       <c r="T86" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="U86" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
@@ -5906,10 +6737,10 @@
         <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -5925,22 +6756,22 @@
       </c>
       <c r="P87"/>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R87"/>
       <c r="S87" t="s">
         <v>22</v>
       </c>
       <c r="T87" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="U87" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -5963,10 +6794,10 @@
         <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
@@ -5978,13 +6809,13 @@
         <v>23</v>
       </c>
       <c r="O88" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P88" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q88" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R88" t="s">
         <v>24</v>
@@ -5993,15 +6824,15 @@
         <v>22</v>
       </c>
       <c r="T88" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
@@ -6018,16 +6849,16 @@
         <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="K89" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="L89" t="s">
         <v>22</v>
@@ -6042,10 +6873,10 @@
         <v>24</v>
       </c>
       <c r="P89" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q89" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R89" t="s">
         <v>24</v>
@@ -6054,15 +6885,15 @@
         <v>22</v>
       </c>
       <c r="T89" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="U89" t="s">
-        <v>26</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -6079,16 +6910,16 @@
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="K90" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
@@ -6104,22 +6935,22 @@
       </c>
       <c r="P90"/>
       <c r="Q90" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R90"/>
       <c r="S90" t="s">
         <v>22</v>
       </c>
       <c r="T90" t="s">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="U90" t="s">
-        <v>26</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -6136,16 +6967,16 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="K91" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="L91" t="s">
         <v>22</v>
@@ -6160,10 +6991,10 @@
         <v>24</v>
       </c>
       <c r="P91" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q91" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R91" t="s">
         <v>24</v>
@@ -6172,15 +7003,15 @@
         <v>22</v>
       </c>
       <c r="T91" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="U91" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -6197,13 +7028,13 @@
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K92" t="s">
         <v>24</v>
@@ -6222,22 +7053,22 @@
       </c>
       <c r="P92"/>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R92"/>
       <c r="S92" t="s">
         <v>22</v>
       </c>
       <c r="T92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>328</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
@@ -6279,7 +7110,7 @@
       </c>
       <c r="P93"/>
       <c r="Q93" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R93"/>
       <c r="S93" t="s">
@@ -6290,7 +7121,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>329</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
@@ -6307,13 +7138,13 @@
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K94" t="s">
         <v>24</v>
@@ -6332,22 +7163,22 @@
       </c>
       <c r="P94"/>
       <c r="Q94" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R94"/>
       <c r="S94" t="s">
         <v>22</v>
       </c>
       <c r="T94" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="U94" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
@@ -6370,10 +7201,10 @@
         <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K95" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L95" t="s">
         <v>22</v>
@@ -6391,24 +7222,24 @@
         <v>22</v>
       </c>
       <c r="Q95" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S95" t="s">
         <v>22</v>
       </c>
       <c r="T95" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="U95" t="s">
-        <v>26</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
@@ -6431,10 +7262,10 @@
         <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="K96" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="L96" t="s">
         <v>22</v>
@@ -6452,24 +7283,24 @@
         <v>22</v>
       </c>
       <c r="Q96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S96" t="s">
         <v>22</v>
       </c>
       <c r="T96" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="U96" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>338</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
@@ -6492,10 +7323,10 @@
         <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K97" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L97" t="s">
         <v>22</v>
@@ -6513,24 +7344,24 @@
         <v>22</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S97" t="s">
         <v>22</v>
       </c>
       <c r="T97" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="U97" t="s">
-        <v>26</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
@@ -6541,10 +7372,10 @@
         <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H98" t="s">
         <v>22</v>
@@ -6553,10 +7384,10 @@
         <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
@@ -6574,24 +7405,24 @@
         <v>22</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S98" t="s">
         <v>22</v>
       </c>
       <c r="T98" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="U98" t="s">
-        <v>26</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
@@ -6614,10 +7445,10 @@
         <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K99" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
@@ -6633,22 +7464,22 @@
       </c>
       <c r="P99"/>
       <c r="Q99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R99"/>
       <c r="S99" t="s">
         <v>22</v>
       </c>
       <c r="T99" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="U99" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
@@ -6671,10 +7502,10 @@
         <v>22</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="K100" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="L100" t="s">
         <v>22</v>
@@ -6692,24 +7523,24 @@
         <v>22</v>
       </c>
       <c r="Q100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R100" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S100" t="s">
         <v>22</v>
       </c>
       <c r="T100" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="U100" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
@@ -6732,10 +7563,10 @@
         <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>
@@ -6751,22 +7582,22 @@
       </c>
       <c r="P101"/>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R101"/>
       <c r="S101" t="s">
         <v>22</v>
       </c>
       <c r="T101" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="U101" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
@@ -6789,10 +7620,10 @@
         <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K102" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L102" t="s">
         <v>22</v>
@@ -6810,24 +7641,24 @@
         <v>22</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S102" t="s">
         <v>22</v>
       </c>
       <c r="T102" t="s">
-        <v>25</v>
+        <v>356</v>
       </c>
       <c r="U102" t="s">
-        <v>26</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
@@ -6850,10 +7681,10 @@
         <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K103" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L103" t="s">
         <v>22</v>
@@ -6871,24 +7702,24 @@
         <v>22</v>
       </c>
       <c r="Q103" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R103" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S103" t="s">
         <v>22</v>
       </c>
       <c r="T103" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="U103" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
@@ -6911,10 +7742,10 @@
         <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K104" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L104" t="s">
         <v>22</v>
@@ -6930,22 +7761,22 @@
       </c>
       <c r="P104"/>
       <c r="Q104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R104"/>
       <c r="S104" t="s">
         <v>22</v>
       </c>
       <c r="T104" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
       <c r="U104" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>364</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
@@ -6968,10 +7799,10 @@
         <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K105" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L105" t="s">
         <v>22</v>
@@ -6987,22 +7818,22 @@
       </c>
       <c r="P105"/>
       <c r="Q105" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R105"/>
       <c r="S105" t="s">
         <v>22</v>
       </c>
       <c r="T105" t="s">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="U105" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
@@ -7025,10 +7856,10 @@
         <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K106" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L106" t="s">
         <v>22</v>
@@ -7046,24 +7877,24 @@
         <v>22</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R106" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S106" t="s">
         <v>22</v>
       </c>
       <c r="T106" t="s">
-        <v>25</v>
+        <v>368</v>
       </c>
       <c r="U106" t="s">
-        <v>26</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
@@ -7086,10 +7917,10 @@
         <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K107" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L107" t="s">
         <v>22</v>
@@ -7105,22 +7936,22 @@
       </c>
       <c r="P107"/>
       <c r="Q107" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R107"/>
       <c r="S107" t="s">
         <v>22</v>
       </c>
       <c r="T107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U107" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
@@ -7143,10 +7974,10 @@
         <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K108" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L108" t="s">
         <v>22</v>
@@ -7162,22 +7993,22 @@
       </c>
       <c r="P108"/>
       <c r="Q108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R108"/>
       <c r="S108" t="s">
         <v>22</v>
       </c>
       <c r="T108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U108" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>372</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
@@ -7200,10 +8031,10 @@
         <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L109" t="s">
         <v>22</v>
@@ -7219,22 +8050,22 @@
       </c>
       <c r="P109"/>
       <c r="Q109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R109"/>
       <c r="S109" t="s">
         <v>22</v>
       </c>
       <c r="T109" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="U109" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
@@ -7257,10 +8088,10 @@
         <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K110" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L110" t="s">
         <v>22</v>
@@ -7276,22 +8107,22 @@
       </c>
       <c r="P110"/>
       <c r="Q110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R110"/>
       <c r="S110" t="s">
         <v>22</v>
       </c>
       <c r="T110" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="U110" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>378</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
@@ -7314,10 +8145,10 @@
         <v>22</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L111" t="s">
         <v>22</v>
@@ -7335,24 +8166,24 @@
         <v>22</v>
       </c>
       <c r="Q111" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R111" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S111" t="s">
         <v>22</v>
       </c>
       <c r="T111" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="U111" t="s">
-        <v>26</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>381</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
@@ -7375,10 +8206,10 @@
         <v>22</v>
       </c>
       <c r="J112" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K112" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L112" t="s">
         <v>22</v>
@@ -7396,24 +8227,24 @@
         <v>22</v>
       </c>
       <c r="Q112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S112" t="s">
         <v>22</v>
       </c>
       <c r="T112" t="s">
-        <v>25</v>
+        <v>382</v>
       </c>
       <c r="U112" t="s">
-        <v>26</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>384</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
@@ -7436,10 +8267,10 @@
         <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K113" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L113" t="s">
         <v>22</v>
@@ -7457,24 +8288,24 @@
         <v>22</v>
       </c>
       <c r="Q113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R113" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S113" t="s">
         <v>22</v>
       </c>
       <c r="T113" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
       <c r="U113" t="s">
-        <v>31</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>387</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
@@ -7497,10 +8328,10 @@
         <v>22</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K114" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L114" t="s">
         <v>22</v>
@@ -7518,24 +8349,24 @@
         <v>22</v>
       </c>
       <c r="Q114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S114" t="s">
         <v>22</v>
       </c>
       <c r="T114" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="U114" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>390</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
@@ -7558,10 +8389,10 @@
         <v>22</v>
       </c>
       <c r="J115" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K115" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L115" t="s">
         <v>22</v>
@@ -7579,24 +8410,24 @@
         <v>22</v>
       </c>
       <c r="Q115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R115" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S115" t="s">
         <v>22</v>
       </c>
       <c r="T115" t="s">
-        <v>25</v>
+        <v>391</v>
       </c>
       <c r="U115" t="s">
-        <v>26</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>393</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
@@ -7619,10 +8450,10 @@
         <v>22</v>
       </c>
       <c r="J116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K116" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L116" t="s">
         <v>22</v>
@@ -7638,22 +8469,22 @@
       </c>
       <c r="P116"/>
       <c r="Q116" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R116"/>
       <c r="S116" t="s">
         <v>22</v>
       </c>
       <c r="T116" t="s">
-        <v>25</v>
+        <v>394</v>
       </c>
       <c r="U116" t="s">
-        <v>26</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>396</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
@@ -7676,10 +8507,10 @@
         <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>25</v>
+        <v>397</v>
       </c>
       <c r="K117" t="s">
-        <v>26</v>
+        <v>398</v>
       </c>
       <c r="L117" t="s">
         <v>22</v>
@@ -7697,24 +8528,24 @@
         <v>22</v>
       </c>
       <c r="Q117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S117" t="s">
         <v>22</v>
       </c>
       <c r="T117" t="s">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="U117" t="s">
-        <v>26</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>401</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
@@ -7737,10 +8568,10 @@
         <v>22</v>
       </c>
       <c r="J118" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="K118" t="s">
-        <v>26</v>
+        <v>403</v>
       </c>
       <c r="L118" t="s">
         <v>22</v>
@@ -7758,24 +8589,24 @@
         <v>22</v>
       </c>
       <c r="Q118" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S118" t="s">
         <v>22</v>
       </c>
       <c r="T118" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="U118" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>404</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
@@ -7798,10 +8629,10 @@
         <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K119" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L119" t="s">
         <v>22</v>
@@ -7817,22 +8648,22 @@
       </c>
       <c r="P119"/>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R119"/>
       <c r="S119" t="s">
         <v>22</v>
       </c>
       <c r="T119" t="s">
-        <v>25</v>
+        <v>405</v>
       </c>
       <c r="U119" t="s">
-        <v>26</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>407</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
@@ -7855,10 +8686,10 @@
         <v>22</v>
       </c>
       <c r="J120" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K120" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L120" t="s">
         <v>22</v>
@@ -7876,24 +8707,24 @@
         <v>22</v>
       </c>
       <c r="Q120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R120" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S120" t="s">
         <v>22</v>
       </c>
       <c r="T120" t="s">
-        <v>25</v>
+        <v>408</v>
       </c>
       <c r="U120" t="s">
-        <v>26</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>410</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
@@ -7916,10 +8747,10 @@
         <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K121" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L121" t="s">
         <v>22</v>
@@ -7937,24 +8768,24 @@
         <v>22</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R121" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S121" t="s">
         <v>22</v>
       </c>
       <c r="T121" t="s">
-        <v>25</v>
+        <v>411</v>
       </c>
       <c r="U121" t="s">
-        <v>26</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>413</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
@@ -7977,10 +8808,10 @@
         <v>22</v>
       </c>
       <c r="J122" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K122" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L122" t="s">
         <v>22</v>
@@ -7996,22 +8827,22 @@
       </c>
       <c r="P122"/>
       <c r="Q122" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R122"/>
       <c r="S122" t="s">
         <v>22</v>
       </c>
       <c r="T122" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
       <c r="U122" t="s">
-        <v>26</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
@@ -8034,10 +8865,10 @@
         <v>22</v>
       </c>
       <c r="J123" t="s">
-        <v>25</v>
+        <v>417</v>
       </c>
       <c r="K123" t="s">
-        <v>26</v>
+        <v>418</v>
       </c>
       <c r="L123" t="s">
         <v>22</v>
@@ -8053,22 +8884,22 @@
       </c>
       <c r="P123"/>
       <c r="Q123" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R123"/>
       <c r="S123" t="s">
         <v>22</v>
       </c>
       <c r="T123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U123" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>419</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -8091,10 +8922,10 @@
         <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K124" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L124" t="s">
         <v>22</v>
@@ -8110,22 +8941,22 @@
       </c>
       <c r="P124"/>
       <c r="Q124" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R124"/>
       <c r="S124" t="s">
         <v>22</v>
       </c>
       <c r="T124" t="s">
-        <v>25</v>
+        <v>420</v>
       </c>
       <c r="U124" t="s">
-        <v>26</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>422</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -8138,10 +8969,10 @@
       </c>
       <c r="I125"/>
       <c r="J125" t="s">
-        <v>25</v>
+        <v>423</v>
       </c>
       <c r="K125" t="s">
-        <v>26</v>
+        <v>424</v>
       </c>
       <c r="L125"/>
       <c r="M125"/>
@@ -8151,18 +8982,18 @@
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125" t="s">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="R125"/>
       <c r="S125"/>
       <c r="T125" t="s">
-        <v>25</v>
+        <v>426</v>
       </c>
       <c r="U125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>427</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -8175,10 +9006,10 @@
       </c>
       <c r="I126"/>
       <c r="J126" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K126" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -8195,7 +9026,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>428</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -8208,10 +9039,10 @@
       </c>
       <c r="I127"/>
       <c r="J127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -8221,18 +9052,18 @@
       <c r="O127"/>
       <c r="P127"/>
       <c r="Q127" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R127"/>
       <c r="S127"/>
       <c r="T127" t="s">
-        <v>25</v>
+        <v>429</v>
       </c>
       <c r="U127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -8241,14 +9072,14 @@
       <c r="F128"/>
       <c r="G128"/>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I128"/>
       <c r="J128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K128" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -8258,12 +9089,12 @@
       <c r="O128"/>
       <c r="P128"/>
       <c r="Q128" t="s">
-        <v>25</v>
+        <v>431</v>
       </c>
       <c r="R128"/>
       <c r="S128"/>
       <c r="T128" t="s">
-        <v>25</v>
+        <v>432</v>
       </c>
       <c r="U128"/>
     </row>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -89,789 +89,249 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeneas 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeneas 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stapaloop 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildhorse 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaparte 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">-4</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeneas 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.883901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.116099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeneas 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.220008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.220008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.167836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.167836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.318882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.318882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.038093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.038093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.586945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.586945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.198164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.198164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.284318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.284318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.419269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.419269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.818937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.818937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.207601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.792399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.185434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.185434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.399532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.399532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.319829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.319829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.03766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.03766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.777367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.777367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.224104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.224104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.320459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.320459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.116269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.116269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.167493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.167493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.749198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.749198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.501111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.501111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.399166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-64.399166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.432166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.432166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.334777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.334777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stapaloop 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trail 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.116413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-55.116413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildhorse 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.739508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.739508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaparte 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.431316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.167836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.129048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.129048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.091101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.091101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.680162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.680162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.624378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.624378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.039375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14.039375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.344177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.344177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.178187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.178187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.496512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.496512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.667939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.667939</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antoine 16-3</t>
   </si>
   <si>
-    <t xml:space="preserve">4.133879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866121</t>
-  </si>
-  <si>
     <t xml:space="preserve">Johnson 16-3</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.361218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.361218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.099974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.099974</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loup Loup 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.001838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.001838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.541966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.458034</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ninemile 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">44.49451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.49451</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ninemile 16-4</t>
   </si>
   <si>
-    <t xml:space="preserve">29.81346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.81346</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ninemile 16-5</t>
   </si>
   <si>
-    <t xml:space="preserve">63.43833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-58.43833</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-10</t>
   </si>
   <si>
-    <t xml:space="preserve">10.611857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.611857</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-14</t>
   </si>
   <si>
-    <t xml:space="preserve">2.714168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.285832</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-15</t>
   </si>
   <si>
-    <t xml:space="preserve">12.259213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.259213</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-34</t>
   </si>
   <si>
-    <t xml:space="preserve">12.315478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.315478</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-38</t>
   </si>
   <si>
-    <t xml:space="preserve">2.879278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.120722</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-39</t>
   </si>
   <si>
-    <t xml:space="preserve">4.444302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555698</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-40</t>
   </si>
   <si>
-    <t xml:space="preserve">8.058882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.058882</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-42</t>
   </si>
   <si>
-    <t xml:space="preserve">8.633381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.633381</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-10</t>
   </si>
   <si>
-    <t xml:space="preserve">28.915945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.915945</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-11</t>
   </si>
   <si>
-    <t xml:space="preserve">25.521589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.521589</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-12</t>
   </si>
   <si>
-    <t xml:space="preserve">29.244194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.244194</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-13</t>
   </si>
   <si>
-    <t xml:space="preserve">29.029811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.029811</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-14</t>
   </si>
   <si>
-    <t xml:space="preserve">38.922077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.922077</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-15</t>
   </si>
   <si>
-    <t xml:space="preserve">57.298958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.298958</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.338789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.338789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.409017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.409017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-5</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.122712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.122712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.486659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.486659</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-6</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.749857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.749857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.224081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.224081</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-7</t>
   </si>
   <si>
-    <t xml:space="preserve">24.915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.915771</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-8</t>
   </si>
   <si>
-    <t xml:space="preserve">23.978974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.978974</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-9</t>
   </si>
   <si>
-    <t xml:space="preserve">32.489758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.489758</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-11</t>
   </si>
   <si>
-    <t xml:space="preserve">65.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.32</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-3</t>
   </si>
   <si>
-    <t xml:space="preserve">6.366515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.366515</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-4</t>
   </si>
   <si>
-    <t xml:space="preserve">12.676689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.676689</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-6</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.28912</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-7</t>
   </si>
   <si>
-    <t xml:space="preserve">24.533978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.533978</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-8</t>
   </si>
   <si>
-    <t xml:space="preserve">37.185839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.185839</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-9</t>
   </si>
   <si>
-    <t xml:space="preserve">12.88148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.88148</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similkameen 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">14.48071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.48071</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similkameen 16-6</t>
   </si>
   <si>
-    <t xml:space="preserve">3.916658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.083342</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tonasket 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">54.08154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.08154</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wanacut 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.510195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.510195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.612419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.612419</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ninemile 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">39.483907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.483907</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-5</t>
   </si>
   <si>
-    <t xml:space="preserve">1.791237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.208763</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wildhorse 16-1</t>
   </si>
   <si>
     <t xml:space="preserve">Okanogan 16-9</t>
   </si>
   <si>
-    <t xml:space="preserve">16.426704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.426704</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antoine 16-5</t>
   </si>
   <si>
@@ -881,120 +341,36 @@
     <t xml:space="preserve">Loup Loup 16-3</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.155952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.155952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.044769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.044769</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-36</t>
   </si>
   <si>
-    <t xml:space="preserve">5.858772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.858772</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swimptkin 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-17</t>
   </si>
   <si>
-    <t xml:space="preserve">9.643599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.643599</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-31</t>
   </si>
   <si>
-    <t xml:space="preserve">16.211749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11.211749</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-44</t>
   </si>
   <si>
-    <t xml:space="preserve">49.736718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.736718</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-45</t>
   </si>
   <si>
-    <t xml:space="preserve">28.705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.705688</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whitestone 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.245682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.245682</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whitestone 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">15.658403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.658403</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whitestone 16-3</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.312591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.312591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.664103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.664103</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antoine 16-4</t>
   </si>
   <si>
@@ -1004,126 +380,42 @@
     <t xml:space="preserve">Salmon 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.038908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.961092</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-22</t>
   </si>
   <si>
-    <t xml:space="preserve">11.500863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.500863</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-4</t>
   </si>
   <si>
-    <t xml:space="preserve">7.709108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.709108</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-21</t>
   </si>
   <si>
-    <t xml:space="preserve">1.372949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.627051</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-13</t>
   </si>
   <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-27</t>
   </si>
   <si>
-    <t xml:space="preserve">13.734772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.734772</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stapaloop 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">1.933066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.066934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.208981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.208981</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-8</t>
   </si>
   <si>
-    <t xml:space="preserve">14.498021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.498021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-6</t>
   </si>
   <si>
-    <t xml:space="preserve">1.743868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.256132</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-5</t>
   </si>
   <si>
-    <t xml:space="preserve">5.001879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00187899999999974</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-7</t>
   </si>
   <si>
-    <t xml:space="preserve">5.699037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.699037</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-4</t>
   </si>
   <si>
-    <t xml:space="preserve">1.885137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.114863</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.689316</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-1</t>
   </si>
   <si>
@@ -1133,184 +425,61 @@
     <t xml:space="preserve">Okanogan 16-13</t>
   </si>
   <si>
-    <t xml:space="preserve">11.770441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.770441</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-41</t>
   </si>
   <si>
-    <t xml:space="preserve">5.795601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.795601</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-23</t>
   </si>
   <si>
-    <t xml:space="preserve">11.570154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.570154</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-26</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20973</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omak 16-17</t>
   </si>
   <si>
-    <t xml:space="preserve">64.036407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59.036407</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-12</t>
   </si>
   <si>
-    <t xml:space="preserve">6.683645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.683645</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-11</t>
   </si>
   <si>
-    <t xml:space="preserve">8.518896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.518896</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-37</t>
   </si>
   <si>
-    <t xml:space="preserve">3.544872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.455128</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wanacut 16-2</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.026593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.026593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.064606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.064606</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tunk 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.175686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.175686</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tonasket 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">34.769475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.769475</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similkameen 16-5</t>
   </si>
   <si>
-    <t xml:space="preserve">9.095121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.095121</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-16</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55604</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similkameen 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">12.445966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.445966</t>
-  </si>
-  <si>
     <t xml:space="preserve">Johnson 16-8</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.245174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.245174</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similkameen 16-4</t>
   </si>
   <si>
-    <t xml:space="preserve">11.049122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.049122</t>
-  </si>
-  <si>
     <t xml:space="preserve">Siwash 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.059111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.005689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.323531</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanagan 16-48</t>
   </si>
   <si>
     <t xml:space="preserve">Okanogan 16-47</t>
   </si>
   <si>
-    <t xml:space="preserve">13.16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okanogan 16-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.795047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
   </si>
 </sst>
 </file>
@@ -1751,22 +920,22 @@
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R2"/>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1783,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -1810,24 +979,24 @@
         <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
         <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1850,41 +1019,41 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R4"/>
       <c r="S4" t="s">
         <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1907,45 +1076,45 @@
         <v>22</v>
       </c>
       <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
-      </c>
       <c r="S5" t="s">
         <v>22</v>
       </c>
       <c r="T5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1968,10 +1137,10 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
@@ -1989,24 +1158,24 @@
         <v>23</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s">
         <v>22</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -2023,25 +1192,25 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
@@ -2050,24 +1219,24 @@
         <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -2090,41 +1259,41 @@
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R8"/>
       <c r="S8" t="s">
         <v>22</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2147,10 +1316,10 @@
         <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -2168,24 +1337,24 @@
         <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2208,10 +1377,10 @@
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
@@ -2229,24 +1398,24 @@
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="U10" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -2269,41 +1438,41 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R11"/>
       <c r="S11" t="s">
         <v>22</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="U11" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -2320,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
@@ -2345,22 +1514,22 @@
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R12"/>
       <c r="S12" t="s">
         <v>22</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="U12" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -2383,41 +1552,41 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R13"/>
       <c r="S13" t="s">
         <v>22</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="U13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -2440,10 +1609,10 @@
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
         <v>23</v>
@@ -2452,16 +1621,16 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
         <v>24</v>
@@ -2470,15 +1639,15 @@
         <v>22</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="U14" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2501,41 +1670,41 @@
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R15"/>
       <c r="S15" t="s">
         <v>22</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="U15" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -2558,41 +1727,41 @@
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R16"/>
       <c r="S16" t="s">
         <v>22</v>
       </c>
       <c r="T16" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="U16" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2615,10 +1784,10 @@
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -2636,24 +1805,24 @@
         <v>22</v>
       </c>
       <c r="Q17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
       <c r="T17" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="U17" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -2670,47 +1839,47 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
         <v>30</v>
-      </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" t="s">
-        <v>31</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R18"/>
       <c r="S18" t="s">
         <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="U18" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -2721,53 +1890,53 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="s">
         <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" t="s">
-        <v>31</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R19"/>
       <c r="S19" t="s">
         <v>22</v>
       </c>
       <c r="T19" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="U19" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2790,41 +1959,41 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" t="s">
         <v>30</v>
-      </c>
-      <c r="K20" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" t="s">
-        <v>31</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R20"/>
       <c r="S20" t="s">
         <v>22</v>
       </c>
       <c r="T20" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2841,51 +2010,51 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" t="s">
         <v>30</v>
       </c>
-      <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
         <v>31</v>
       </c>
-      <c r="P21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" t="s">
-        <v>24</v>
-      </c>
       <c r="S21" t="s">
         <v>22</v>
       </c>
       <c r="T21" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="U21" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2908,10 +2077,10 @@
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
@@ -2929,24 +2098,24 @@
         <v>23</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S22" t="s">
         <v>22</v>
       </c>
       <c r="T22" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="U22" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2960,54 +2129,54 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" t="s">
         <v>30</v>
       </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" t="s">
-        <v>31</v>
-      </c>
       <c r="P23" t="s">
         <v>22</v>
       </c>
       <c r="Q23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S23" t="s">
         <v>22</v>
       </c>
       <c r="T23" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="U23" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3021,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -3030,19 +2199,19 @@
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
@@ -3051,24 +2220,24 @@
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S24" t="s">
         <v>22</v>
       </c>
       <c r="T24" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="U24" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -3085,16 +2254,16 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
@@ -3121,7 +2290,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -3144,10 +2313,10 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -3163,22 +2332,22 @@
       </c>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R26"/>
       <c r="S26" t="s">
         <v>22</v>
       </c>
       <c r="T26" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="U26" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -3195,47 +2364,47 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
         <v>30</v>
-      </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" t="s">
-        <v>121</v>
-      </c>
-      <c r="L27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" t="s">
-        <v>31</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R27"/>
       <c r="S27" t="s">
         <v>22</v>
       </c>
       <c r="T27" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="U27" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -3258,10 +2427,10 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
@@ -3273,30 +2442,30 @@
         <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28" t="s">
         <v>22</v>
       </c>
       <c r="Q28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S28" t="s">
         <v>22</v>
       </c>
       <c r="T28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -3313,51 +2482,51 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
         <v>30</v>
       </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" t="s">
-        <v>31</v>
-      </c>
       <c r="P29" t="s">
         <v>22</v>
       </c>
       <c r="Q29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S29" t="s">
         <v>22</v>
       </c>
       <c r="T29" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="U29" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -3380,10 +2549,10 @@
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -3399,22 +2568,22 @@
       </c>
       <c r="P30"/>
       <c r="Q30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R30"/>
       <c r="S30" t="s">
         <v>23</v>
       </c>
       <c r="T30" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="U30" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -3437,10 +2606,10 @@
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -3455,10 +2624,10 @@
         <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R31" t="s">
         <v>24</v>
@@ -3467,15 +2636,15 @@
         <v>22</v>
       </c>
       <c r="T31" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="U31" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -3498,10 +2667,10 @@
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -3519,24 +2688,24 @@
         <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S32" t="s">
         <v>22</v>
       </c>
       <c r="T32" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="U32" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -3559,10 +2728,10 @@
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -3577,10 +2746,10 @@
         <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R33" t="s">
         <v>24</v>
@@ -3589,15 +2758,15 @@
         <v>22</v>
       </c>
       <c r="T33" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="U33" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -3620,10 +2789,10 @@
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -3639,22 +2808,22 @@
       </c>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R34"/>
       <c r="S34" t="s">
         <v>22</v>
       </c>
       <c r="T34" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="U34" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3677,10 +2846,10 @@
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
@@ -3696,22 +2865,22 @@
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R35"/>
       <c r="S35" t="s">
         <v>22</v>
       </c>
       <c r="T35" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="U35" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -3755,24 +2924,24 @@
         <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S36" t="s">
         <v>22</v>
       </c>
       <c r="T36" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="U36" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -3795,45 +2964,45 @@
         <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N37" t="s">
         <v>22</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P37" t="s">
         <v>22</v>
       </c>
       <c r="Q37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S37" t="s">
         <v>22</v>
       </c>
       <c r="T37" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="U37" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -3856,41 +3025,41 @@
         <v>22</v>
       </c>
       <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" t="s">
         <v>30</v>
-      </c>
-      <c r="K38" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" t="s">
-        <v>31</v>
       </c>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R38"/>
       <c r="S38" t="s">
         <v>22</v>
       </c>
       <c r="T38" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="U38" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -3913,10 +3082,10 @@
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
         <v>22</v>
@@ -3932,22 +3101,22 @@
       </c>
       <c r="P39"/>
       <c r="Q39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R39"/>
       <c r="S39" t="s">
         <v>22</v>
       </c>
       <c r="T39" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="U39" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -3970,10 +3139,10 @@
         <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
         <v>22</v>
@@ -3991,24 +3160,24 @@
         <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S40" t="s">
         <v>22</v>
       </c>
       <c r="T40" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="U40" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -4031,10 +3200,10 @@
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
         <v>22</v>
@@ -4052,24 +3221,24 @@
         <v>22</v>
       </c>
       <c r="Q41" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S41" t="s">
         <v>22</v>
       </c>
       <c r="T41" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="U41" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -4092,10 +3261,10 @@
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K42" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
@@ -4113,24 +3282,24 @@
         <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S42" t="s">
         <v>22</v>
       </c>
       <c r="T42" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="U42" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -4153,10 +3322,10 @@
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L43" t="s">
         <v>22</v>
@@ -4174,24 +3343,24 @@
         <v>22</v>
       </c>
       <c r="Q43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S43" t="s">
         <v>22</v>
       </c>
       <c r="T43" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="U43" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -4214,10 +3383,10 @@
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L44" t="s">
         <v>22</v>
@@ -4233,22 +3402,22 @@
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R44"/>
       <c r="S44" t="s">
         <v>22</v>
       </c>
       <c r="T44" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="U44" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -4271,10 +3440,10 @@
         <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L45" t="s">
         <v>22</v>
@@ -4290,22 +3459,22 @@
       </c>
       <c r="P45"/>
       <c r="Q45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R45"/>
       <c r="S45" t="s">
         <v>22</v>
       </c>
       <c r="T45" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="U45" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -4322,13 +3491,13 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K46" t="s">
         <v>24</v>
@@ -4340,16 +3509,16 @@
         <v>23</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
         <v>24</v>
@@ -4358,15 +3527,15 @@
         <v>22</v>
       </c>
       <c r="T46" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="U46" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -4389,10 +3558,10 @@
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L47" t="s">
         <v>22</v>
@@ -4410,24 +3579,24 @@
         <v>23</v>
       </c>
       <c r="Q47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S47" t="s">
         <v>22</v>
       </c>
       <c r="T47" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="U47" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -4450,10 +3619,10 @@
         <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
@@ -4469,22 +3638,22 @@
       </c>
       <c r="P48"/>
       <c r="Q48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R48"/>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="U48" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -4507,10 +3676,10 @@
         <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -4528,24 +3697,24 @@
         <v>23</v>
       </c>
       <c r="Q49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R49" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S49" t="s">
         <v>22</v>
       </c>
       <c r="T49" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="U49" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -4568,10 +3737,10 @@
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L50" t="s">
         <v>22</v>
@@ -4587,22 +3756,22 @@
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R50"/>
       <c r="S50" t="s">
         <v>22</v>
       </c>
       <c r="T50" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="U50" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -4625,10 +3794,10 @@
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -4640,30 +3809,30 @@
         <v>22</v>
       </c>
       <c r="O51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51" t="s">
         <v>31</v>
       </c>
-      <c r="P51" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" t="s">
-        <v>24</v>
-      </c>
       <c r="S51" t="s">
         <v>22</v>
       </c>
       <c r="T51" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="U51" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -4686,10 +3855,10 @@
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
@@ -4707,24 +3876,24 @@
         <v>22</v>
       </c>
       <c r="Q52" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S52" t="s">
         <v>22</v>
       </c>
       <c r="T52" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="U52" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -4747,10 +3916,10 @@
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L53" t="s">
         <v>22</v>
@@ -4766,22 +3935,22 @@
       </c>
       <c r="P53"/>
       <c r="Q53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R53"/>
       <c r="S53" t="s">
         <v>22</v>
       </c>
       <c r="T53" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="U53" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -4804,10 +3973,10 @@
         <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L54" t="s">
         <v>22</v>
@@ -4825,24 +3994,24 @@
         <v>22</v>
       </c>
       <c r="Q54" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S54" t="s">
         <v>22</v>
       </c>
       <c r="T54" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="U54" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -4865,10 +4034,10 @@
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
@@ -4884,22 +4053,22 @@
       </c>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R55"/>
       <c r="S55" t="s">
         <v>22</v>
       </c>
       <c r="T55" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="U55" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
@@ -4922,10 +4091,10 @@
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L56" t="s">
         <v>22</v>
@@ -4943,24 +4112,24 @@
         <v>22</v>
       </c>
       <c r="Q56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S56" t="s">
         <v>22</v>
       </c>
       <c r="T56" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="U56" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
@@ -4983,10 +4152,10 @@
         <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
@@ -5002,22 +4171,22 @@
       </c>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R57"/>
       <c r="S57" t="s">
         <v>22</v>
       </c>
       <c r="T57" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="U57" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -5040,45 +4209,45 @@
         <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="L58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N58" t="s">
         <v>22</v>
       </c>
       <c r="O58" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P58" t="s">
         <v>23</v>
       </c>
       <c r="Q58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R58" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S58" t="s">
         <v>22</v>
       </c>
       <c r="T58" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="U58" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -5101,10 +4270,10 @@
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="K59" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -5116,30 +4285,30 @@
         <v>22</v>
       </c>
       <c r="O59" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" t="s">
         <v>31</v>
       </c>
-      <c r="P59" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" t="s">
-        <v>24</v>
-      </c>
       <c r="S59" t="s">
         <v>22</v>
       </c>
       <c r="T59" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="U59" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -5162,10 +4331,10 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="K60" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -5177,26 +4346,26 @@
         <v>22</v>
       </c>
       <c r="O60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R60"/>
       <c r="S60" t="s">
         <v>22</v>
       </c>
       <c r="T60" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="U60" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -5219,10 +4388,10 @@
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -5234,26 +4403,26 @@
         <v>22</v>
       </c>
       <c r="O61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P61"/>
       <c r="Q61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R61"/>
       <c r="S61" t="s">
         <v>22</v>
       </c>
       <c r="T61" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="U61" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -5276,10 +4445,10 @@
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -5291,30 +4460,30 @@
         <v>22</v>
       </c>
       <c r="O62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P62" t="s">
         <v>22</v>
       </c>
       <c r="Q62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S62" t="s">
         <v>22</v>
       </c>
       <c r="T62" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="U62" t="s">
-        <v>237</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -5337,10 +4506,10 @@
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -5352,26 +4521,26 @@
         <v>22</v>
       </c>
       <c r="O63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P63"/>
       <c r="Q63" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R63"/>
       <c r="S63" t="s">
         <v>22</v>
       </c>
       <c r="T63" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="U63" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -5394,45 +4563,45 @@
         <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N64" t="s">
         <v>22</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P64" t="s">
         <v>22</v>
       </c>
       <c r="Q64" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S64" t="s">
         <v>22</v>
       </c>
       <c r="T64" t="s">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="U64" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -5446,54 +4615,54 @@
         <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N65" t="s">
         <v>22</v>
       </c>
       <c r="O65" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P65" t="s">
         <v>22</v>
       </c>
       <c r="Q65" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S65" t="s">
         <v>22</v>
       </c>
       <c r="T65" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="U65" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -5516,41 +4685,41 @@
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K66" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L66" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M66" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N66" t="s">
         <v>22</v>
       </c>
       <c r="O66" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P66"/>
       <c r="Q66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R66"/>
       <c r="S66" t="s">
         <v>22</v>
       </c>
       <c r="T66" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="U66" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -5573,41 +4742,41 @@
         <v>22</v>
       </c>
       <c r="J67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" t="s">
         <v>30</v>
-      </c>
-      <c r="K67" t="s">
-        <v>39</v>
-      </c>
-      <c r="L67" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" t="s">
-        <v>31</v>
       </c>
       <c r="P67"/>
       <c r="Q67" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R67"/>
       <c r="S67" t="s">
         <v>22</v>
       </c>
       <c r="T67" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="U67" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -5630,45 +4799,45 @@
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K68" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N68" t="s">
         <v>22</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P68" t="s">
         <v>22</v>
       </c>
       <c r="Q68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S68" t="s">
         <v>22</v>
       </c>
       <c r="T68" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="U68" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -5691,41 +4860,41 @@
         <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K69" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N69" t="s">
         <v>22</v>
       </c>
       <c r="O69" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P69"/>
       <c r="Q69" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R69"/>
       <c r="S69" t="s">
         <v>22</v>
       </c>
       <c r="T69" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="U69" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -5748,45 +4917,45 @@
         <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K70" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L70" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M70" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N70" t="s">
         <v>22</v>
       </c>
       <c r="O70" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="P70" t="s">
         <v>22</v>
       </c>
       <c r="Q70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S70" t="s">
         <v>22</v>
       </c>
       <c r="T70" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="U70" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -5809,10 +4978,10 @@
         <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K71" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L71" t="s">
         <v>22</v>
@@ -5824,26 +4993,26 @@
         <v>23</v>
       </c>
       <c r="O71" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P71"/>
       <c r="Q71" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R71"/>
       <c r="S71" t="s">
         <v>22</v>
       </c>
       <c r="T71" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="U71" t="s">
-        <v>264</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -5866,10 +5035,10 @@
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K72" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L72" t="s">
         <v>22</v>
@@ -5885,22 +5054,22 @@
       </c>
       <c r="P72"/>
       <c r="Q72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R72"/>
       <c r="S72" t="s">
         <v>22</v>
       </c>
       <c r="T72" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="U72" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -5923,10 +5092,10 @@
         <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
@@ -5942,22 +5111,22 @@
       </c>
       <c r="P73"/>
       <c r="Q73" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R73"/>
       <c r="S73" t="s">
         <v>22</v>
       </c>
       <c r="T73" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="U73" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -5974,16 +5143,16 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="K74" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -6001,24 +5170,24 @@
         <v>22</v>
       </c>
       <c r="Q74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S74" t="s">
         <v>22</v>
       </c>
       <c r="T74" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="U74" t="s">
-        <v>275</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -6041,10 +5210,10 @@
         <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K75" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
@@ -6060,22 +5229,22 @@
       </c>
       <c r="P75"/>
       <c r="Q75" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R75"/>
       <c r="S75" t="s">
         <v>22</v>
       </c>
       <c r="T75" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="U75" t="s">
-        <v>278</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -6098,10 +5267,10 @@
         <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K76" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -6119,24 +5288,24 @@
         <v>22</v>
       </c>
       <c r="Q76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R76" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S76" t="s">
         <v>22</v>
       </c>
       <c r="T76" t="s">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="U76" t="s">
-        <v>281</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -6153,16 +5322,16 @@
         <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K77" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -6193,7 +5362,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -6216,10 +5385,10 @@
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
@@ -6235,22 +5404,22 @@
       </c>
       <c r="P78"/>
       <c r="Q78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R78"/>
       <c r="S78" t="s">
         <v>22</v>
       </c>
       <c r="T78" t="s">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c r="U78" t="s">
-        <v>285</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -6267,47 +5436,47 @@
         <v>24</v>
       </c>
       <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" t="s">
         <v>30</v>
-      </c>
-      <c r="I79" t="s">
-        <v>22</v>
-      </c>
-      <c r="J79" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M79" t="s">
-        <v>23</v>
-      </c>
-      <c r="N79" t="s">
-        <v>22</v>
-      </c>
-      <c r="O79" t="s">
-        <v>31</v>
       </c>
       <c r="P79"/>
       <c r="Q79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R79"/>
       <c r="S79" t="s">
         <v>22</v>
       </c>
       <c r="T79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U79" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -6330,41 +5499,41 @@
         <v>22</v>
       </c>
       <c r="J80" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" t="s">
         <v>30</v>
-      </c>
-      <c r="K80" t="s">
-        <v>39</v>
-      </c>
-      <c r="L80" t="s">
-        <v>23</v>
-      </c>
-      <c r="M80" t="s">
-        <v>23</v>
-      </c>
-      <c r="N80" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" t="s">
-        <v>31</v>
       </c>
       <c r="P80"/>
       <c r="Q80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R80"/>
       <c r="S80" t="s">
         <v>22</v>
       </c>
       <c r="T80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U80" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -6387,10 +5556,10 @@
         <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="K81" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -6402,30 +5571,30 @@
         <v>22</v>
       </c>
       <c r="O81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P81" t="s">
         <v>22</v>
       </c>
       <c r="Q81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S81" t="s">
         <v>22</v>
       </c>
       <c r="T81" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="U81" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -6448,10 +5617,10 @@
         <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -6460,29 +5629,29 @@
         <v>23</v>
       </c>
       <c r="N82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O82" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P82"/>
       <c r="Q82" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R82"/>
       <c r="S82" t="s">
         <v>22</v>
       </c>
       <c r="T82" t="s">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="U82" t="s">
-        <v>295</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
@@ -6505,41 +5674,41 @@
         <v>22</v>
       </c>
       <c r="J83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" t="s">
         <v>30</v>
-      </c>
-      <c r="K83" t="s">
-        <v>39</v>
-      </c>
-      <c r="L83" t="s">
-        <v>23</v>
-      </c>
-      <c r="M83" t="s">
-        <v>23</v>
-      </c>
-      <c r="N83" t="s">
-        <v>22</v>
-      </c>
-      <c r="O83" t="s">
-        <v>31</v>
       </c>
       <c r="P83"/>
       <c r="Q83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R83"/>
       <c r="S83" t="s">
         <v>22</v>
       </c>
       <c r="T83" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="U83" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
@@ -6556,47 +5725,47 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" t="s">
         <v>30</v>
-      </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" t="s">
-        <v>24</v>
-      </c>
-      <c r="K84" t="s">
-        <v>30</v>
-      </c>
-      <c r="L84" t="s">
-        <v>23</v>
-      </c>
-      <c r="M84" t="s">
-        <v>23</v>
-      </c>
-      <c r="N84" t="s">
-        <v>22</v>
-      </c>
-      <c r="O84" t="s">
-        <v>31</v>
       </c>
       <c r="P84"/>
       <c r="Q84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R84"/>
       <c r="S84" t="s">
         <v>22</v>
       </c>
       <c r="T84" t="s">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="U84" t="s">
-        <v>301</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
@@ -6619,10 +5788,10 @@
         <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K85" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
@@ -6638,22 +5807,22 @@
       </c>
       <c r="P85"/>
       <c r="Q85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R85"/>
       <c r="S85" t="s">
         <v>22</v>
       </c>
       <c r="T85" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="U85" t="s">
-        <v>304</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
@@ -6676,10 +5845,10 @@
         <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K86" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
@@ -6697,24 +5866,24 @@
         <v>23</v>
       </c>
       <c r="Q86" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R86" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S86" t="s">
         <v>22</v>
       </c>
       <c r="T86" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="U86" t="s">
-        <v>307</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
@@ -6737,10 +5906,10 @@
         <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -6756,22 +5925,22 @@
       </c>
       <c r="P87"/>
       <c r="Q87" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R87"/>
       <c r="S87" t="s">
         <v>22</v>
       </c>
       <c r="T87" t="s">
-        <v>309</v>
+        <v>25</v>
       </c>
       <c r="U87" t="s">
-        <v>310</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -6794,10 +5963,10 @@
         <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K88" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
@@ -6809,13 +5978,13 @@
         <v>23</v>
       </c>
       <c r="O88" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P88" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q88" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R88" t="s">
         <v>24</v>
@@ -6824,15 +5993,15 @@
         <v>22</v>
       </c>
       <c r="T88" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="U88" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>314</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
@@ -6849,16 +6018,16 @@
         <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="K89" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="L89" t="s">
         <v>22</v>
@@ -6873,10 +6042,10 @@
         <v>24</v>
       </c>
       <c r="P89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R89" t="s">
         <v>24</v>
@@ -6885,15 +6054,15 @@
         <v>22</v>
       </c>
       <c r="T89" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="U89" t="s">
-        <v>318</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -6910,16 +6079,16 @@
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="K90" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
@@ -6935,22 +6104,22 @@
       </c>
       <c r="P90"/>
       <c r="Q90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R90"/>
       <c r="S90" t="s">
         <v>22</v>
       </c>
       <c r="T90" t="s">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="U90" t="s">
-        <v>321</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>322</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -6967,16 +6136,16 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="K91" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="L91" t="s">
         <v>22</v>
@@ -6991,10 +6160,10 @@
         <v>24</v>
       </c>
       <c r="P91" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q91" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R91" t="s">
         <v>24</v>
@@ -7003,15 +6172,15 @@
         <v>22</v>
       </c>
       <c r="T91" t="s">
-        <v>325</v>
+        <v>25</v>
       </c>
       <c r="U91" t="s">
-        <v>326</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -7028,13 +6197,13 @@
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K92" t="s">
         <v>24</v>
@@ -7053,22 +6222,22 @@
       </c>
       <c r="P92"/>
       <c r="Q92" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R92"/>
       <c r="S92" t="s">
         <v>22</v>
       </c>
       <c r="T92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U92" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>328</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
@@ -7110,7 +6279,7 @@
       </c>
       <c r="P93"/>
       <c r="Q93" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R93"/>
       <c r="S93" t="s">
@@ -7121,7 +6290,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
@@ -7138,13 +6307,13 @@
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K94" t="s">
         <v>24</v>
@@ -7163,22 +6332,22 @@
       </c>
       <c r="P94"/>
       <c r="Q94" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R94"/>
       <c r="S94" t="s">
         <v>22</v>
       </c>
       <c r="T94" t="s">
-        <v>330</v>
+        <v>25</v>
       </c>
       <c r="U94" t="s">
-        <v>331</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
@@ -7201,10 +6370,10 @@
         <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L95" t="s">
         <v>22</v>
@@ -7222,24 +6391,24 @@
         <v>22</v>
       </c>
       <c r="Q95" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R95" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S95" t="s">
         <v>22</v>
       </c>
       <c r="T95" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="U95" t="s">
-        <v>334</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
@@ -7262,10 +6431,10 @@
         <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="K96" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="L96" t="s">
         <v>22</v>
@@ -7283,24 +6452,24 @@
         <v>22</v>
       </c>
       <c r="Q96" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R96" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S96" t="s">
         <v>22</v>
       </c>
       <c r="T96" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="U96" t="s">
-        <v>337</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>338</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
@@ -7323,10 +6492,10 @@
         <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K97" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L97" t="s">
         <v>22</v>
@@ -7344,24 +6513,24 @@
         <v>22</v>
       </c>
       <c r="Q97" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S97" t="s">
         <v>22</v>
       </c>
       <c r="T97" t="s">
-        <v>339</v>
+        <v>25</v>
       </c>
       <c r="U97" t="s">
-        <v>340</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>341</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
@@ -7372,10 +6541,10 @@
         <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H98" t="s">
         <v>22</v>
@@ -7384,10 +6553,10 @@
         <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K98" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
@@ -7405,24 +6574,24 @@
         <v>22</v>
       </c>
       <c r="Q98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R98" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S98" t="s">
         <v>22</v>
       </c>
       <c r="T98" t="s">
-        <v>342</v>
+        <v>25</v>
       </c>
       <c r="U98" t="s">
-        <v>343</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>344</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
@@ -7445,10 +6614,10 @@
         <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
@@ -7464,22 +6633,22 @@
       </c>
       <c r="P99"/>
       <c r="Q99" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R99"/>
       <c r="S99" t="s">
         <v>22</v>
       </c>
       <c r="T99" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="U99" t="s">
-        <v>346</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>347</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
@@ -7502,10 +6671,10 @@
         <v>22</v>
       </c>
       <c r="J100" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="K100" t="s">
-        <v>349</v>
+        <v>31</v>
       </c>
       <c r="L100" t="s">
         <v>22</v>
@@ -7523,24 +6692,24 @@
         <v>22</v>
       </c>
       <c r="Q100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R100" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S100" t="s">
         <v>22</v>
       </c>
       <c r="T100" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="U100" t="s">
-        <v>351</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
@@ -7563,10 +6732,10 @@
         <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>
@@ -7582,22 +6751,22 @@
       </c>
       <c r="P101"/>
       <c r="Q101" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R101"/>
       <c r="S101" t="s">
         <v>22</v>
       </c>
       <c r="T101" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="U101" t="s">
-        <v>354</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>355</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
@@ -7620,10 +6789,10 @@
         <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L102" t="s">
         <v>22</v>
@@ -7641,24 +6810,24 @@
         <v>22</v>
       </c>
       <c r="Q102" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R102" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S102" t="s">
         <v>22</v>
       </c>
       <c r="T102" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="U102" t="s">
-        <v>357</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
@@ -7681,10 +6850,10 @@
         <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L103" t="s">
         <v>22</v>
@@ -7702,24 +6871,24 @@
         <v>22</v>
       </c>
       <c r="Q103" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R103" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S103" t="s">
         <v>22</v>
       </c>
       <c r="T103" t="s">
-        <v>359</v>
+        <v>25</v>
       </c>
       <c r="U103" t="s">
-        <v>360</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
@@ -7742,10 +6911,10 @@
         <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L104" t="s">
         <v>22</v>
@@ -7761,22 +6930,22 @@
       </c>
       <c r="P104"/>
       <c r="Q104" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R104"/>
       <c r="S104" t="s">
         <v>22</v>
       </c>
       <c r="T104" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="U104" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
@@ -7799,10 +6968,10 @@
         <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L105" t="s">
         <v>22</v>
@@ -7818,22 +6987,22 @@
       </c>
       <c r="P105"/>
       <c r="Q105" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R105"/>
       <c r="S105" t="s">
         <v>22</v>
       </c>
       <c r="T105" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="U105" t="s">
-        <v>366</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
@@ -7856,10 +7025,10 @@
         <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L106" t="s">
         <v>22</v>
@@ -7877,24 +7046,24 @@
         <v>22</v>
       </c>
       <c r="Q106" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R106" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S106" t="s">
         <v>22</v>
       </c>
       <c r="T106" t="s">
-        <v>368</v>
+        <v>25</v>
       </c>
       <c r="U106" t="s">
-        <v>369</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
@@ -7917,10 +7086,10 @@
         <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L107" t="s">
         <v>22</v>
@@ -7936,22 +7105,22 @@
       </c>
       <c r="P107"/>
       <c r="Q107" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R107"/>
       <c r="S107" t="s">
         <v>22</v>
       </c>
       <c r="T107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U107" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
@@ -7974,10 +7143,10 @@
         <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L108" t="s">
         <v>22</v>
@@ -7993,22 +7162,22 @@
       </c>
       <c r="P108"/>
       <c r="Q108" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R108"/>
       <c r="S108" t="s">
         <v>22</v>
       </c>
       <c r="T108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U108" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>372</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
@@ -8031,10 +7200,10 @@
         <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K109" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L109" t="s">
         <v>22</v>
@@ -8050,22 +7219,22 @@
       </c>
       <c r="P109"/>
       <c r="Q109" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R109"/>
       <c r="S109" t="s">
         <v>22</v>
       </c>
       <c r="T109" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
       <c r="U109" t="s">
-        <v>374</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>375</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
@@ -8088,10 +7257,10 @@
         <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K110" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L110" t="s">
         <v>22</v>
@@ -8107,22 +7276,22 @@
       </c>
       <c r="P110"/>
       <c r="Q110" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R110"/>
       <c r="S110" t="s">
         <v>22</v>
       </c>
       <c r="T110" t="s">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="U110" t="s">
-        <v>377</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>378</v>
+        <v>138</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
@@ -8145,10 +7314,10 @@
         <v>22</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L111" t="s">
         <v>22</v>
@@ -8166,24 +7335,24 @@
         <v>22</v>
       </c>
       <c r="Q111" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R111" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S111" t="s">
         <v>22</v>
       </c>
       <c r="T111" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="U111" t="s">
-        <v>380</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
         <v>22</v>
@@ -8206,10 +7375,10 @@
         <v>22</v>
       </c>
       <c r="J112" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K112" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L112" t="s">
         <v>22</v>
@@ -8227,24 +7396,24 @@
         <v>22</v>
       </c>
       <c r="Q112" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R112" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S112" t="s">
         <v>22</v>
       </c>
       <c r="T112" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="U112" t="s">
-        <v>383</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>384</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s">
         <v>22</v>
@@ -8267,45 +7436,45 @@
         <v>22</v>
       </c>
       <c r="J113" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" t="s">
+        <v>26</v>
+      </c>
+      <c r="L113" t="s">
+        <v>22</v>
+      </c>
+      <c r="M113" t="s">
+        <v>22</v>
+      </c>
+      <c r="N113" t="s">
+        <v>22</v>
+      </c>
+      <c r="O113" t="s">
+        <v>24</v>
+      </c>
+      <c r="P113" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>23</v>
+      </c>
+      <c r="R113" t="s">
         <v>31</v>
       </c>
-      <c r="K113" t="s">
-        <v>35</v>
-      </c>
-      <c r="L113" t="s">
-        <v>22</v>
-      </c>
-      <c r="M113" t="s">
-        <v>22</v>
-      </c>
-      <c r="N113" t="s">
-        <v>22</v>
-      </c>
-      <c r="O113" t="s">
-        <v>24</v>
-      </c>
-      <c r="P113" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>22</v>
-      </c>
-      <c r="R113" t="s">
-        <v>24</v>
-      </c>
       <c r="S113" t="s">
         <v>22</v>
       </c>
       <c r="T113" t="s">
-        <v>385</v>
+        <v>23</v>
       </c>
       <c r="U113" t="s">
-        <v>386</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>387</v>
+        <v>141</v>
       </c>
       <c r="B114" t="s">
         <v>22</v>
@@ -8328,10 +7497,10 @@
         <v>22</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L114" t="s">
         <v>22</v>
@@ -8349,24 +7518,24 @@
         <v>22</v>
       </c>
       <c r="Q114" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R114" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S114" t="s">
         <v>22</v>
       </c>
       <c r="T114" t="s">
-        <v>388</v>
+        <v>25</v>
       </c>
       <c r="U114" t="s">
-        <v>389</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>390</v>
+        <v>142</v>
       </c>
       <c r="B115" t="s">
         <v>22</v>
@@ -8389,10 +7558,10 @@
         <v>22</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L115" t="s">
         <v>22</v>
@@ -8410,24 +7579,24 @@
         <v>22</v>
       </c>
       <c r="Q115" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R115" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S115" t="s">
         <v>22</v>
       </c>
       <c r="T115" t="s">
-        <v>391</v>
+        <v>25</v>
       </c>
       <c r="U115" t="s">
-        <v>392</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
         <v>22</v>
@@ -8450,10 +7619,10 @@
         <v>22</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K116" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L116" t="s">
         <v>22</v>
@@ -8469,22 +7638,22 @@
       </c>
       <c r="P116"/>
       <c r="Q116" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R116"/>
       <c r="S116" t="s">
         <v>22</v>
       </c>
       <c r="T116" t="s">
-        <v>394</v>
+        <v>25</v>
       </c>
       <c r="U116" t="s">
-        <v>395</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>396</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
@@ -8507,10 +7676,10 @@
         <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>397</v>
+        <v>25</v>
       </c>
       <c r="K117" t="s">
-        <v>398</v>
+        <v>26</v>
       </c>
       <c r="L117" t="s">
         <v>22</v>
@@ -8528,24 +7697,24 @@
         <v>22</v>
       </c>
       <c r="Q117" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R117" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S117" t="s">
         <v>22</v>
       </c>
       <c r="T117" t="s">
-        <v>399</v>
+        <v>25</v>
       </c>
       <c r="U117" t="s">
-        <v>400</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>401</v>
+        <v>145</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
@@ -8568,10 +7737,10 @@
         <v>22</v>
       </c>
       <c r="J118" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="K118" t="s">
-        <v>403</v>
+        <v>26</v>
       </c>
       <c r="L118" t="s">
         <v>22</v>
@@ -8589,24 +7758,24 @@
         <v>22</v>
       </c>
       <c r="Q118" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R118" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S118" t="s">
         <v>22</v>
       </c>
       <c r="T118" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="U118" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>404</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
@@ -8629,10 +7798,10 @@
         <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K119" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L119" t="s">
         <v>22</v>
@@ -8648,22 +7817,22 @@
       </c>
       <c r="P119"/>
       <c r="Q119" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R119"/>
       <c r="S119" t="s">
         <v>22</v>
       </c>
       <c r="T119" t="s">
-        <v>405</v>
+        <v>25</v>
       </c>
       <c r="U119" t="s">
-        <v>406</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
@@ -8686,10 +7855,10 @@
         <v>22</v>
       </c>
       <c r="J120" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K120" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L120" t="s">
         <v>22</v>
@@ -8707,24 +7876,24 @@
         <v>22</v>
       </c>
       <c r="Q120" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R120" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S120" t="s">
         <v>22</v>
       </c>
       <c r="T120" t="s">
-        <v>408</v>
+        <v>25</v>
       </c>
       <c r="U120" t="s">
-        <v>409</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
@@ -8747,10 +7916,10 @@
         <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K121" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L121" t="s">
         <v>22</v>
@@ -8768,24 +7937,24 @@
         <v>22</v>
       </c>
       <c r="Q121" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="R121" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S121" t="s">
         <v>22</v>
       </c>
       <c r="T121" t="s">
-        <v>411</v>
+        <v>25</v>
       </c>
       <c r="U121" t="s">
-        <v>412</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>413</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
@@ -8808,10 +7977,10 @@
         <v>22</v>
       </c>
       <c r="J122" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K122" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L122" t="s">
         <v>22</v>
@@ -8827,22 +7996,22 @@
       </c>
       <c r="P122"/>
       <c r="Q122" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R122"/>
       <c r="S122" t="s">
         <v>22</v>
       </c>
       <c r="T122" t="s">
-        <v>414</v>
+        <v>25</v>
       </c>
       <c r="U122" t="s">
-        <v>415</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>416</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
@@ -8865,10 +8034,10 @@
         <v>22</v>
       </c>
       <c r="J123" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
       <c r="K123" t="s">
-        <v>418</v>
+        <v>26</v>
       </c>
       <c r="L123" t="s">
         <v>22</v>
@@ -8884,22 +8053,22 @@
       </c>
       <c r="P123"/>
       <c r="Q123" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R123"/>
       <c r="S123" t="s">
         <v>22</v>
       </c>
       <c r="T123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U123" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>419</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -8922,10 +8091,10 @@
         <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K124" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L124" t="s">
         <v>22</v>
@@ -8941,22 +8110,22 @@
       </c>
       <c r="P124"/>
       <c r="Q124" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R124"/>
       <c r="S124" t="s">
         <v>22</v>
       </c>
       <c r="T124" t="s">
-        <v>420</v>
+        <v>25</v>
       </c>
       <c r="U124" t="s">
-        <v>421</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>422</v>
+        <v>152</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -8969,10 +8138,10 @@
       </c>
       <c r="I125"/>
       <c r="J125" t="s">
-        <v>423</v>
+        <v>25</v>
       </c>
       <c r="K125" t="s">
-        <v>424</v>
+        <v>26</v>
       </c>
       <c r="L125"/>
       <c r="M125"/>
@@ -8982,18 +8151,18 @@
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125" t="s">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="R125"/>
       <c r="S125"/>
       <c r="T125" t="s">
-        <v>426</v>
+        <v>25</v>
       </c>
       <c r="U125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>427</v>
+        <v>153</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -9006,10 +8175,10 @@
       </c>
       <c r="I126"/>
       <c r="J126" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K126" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -9026,7 +8195,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>428</v>
+        <v>154</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -9039,10 +8208,10 @@
       </c>
       <c r="I127"/>
       <c r="J127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K127" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -9052,18 +8221,18 @@
       <c r="O127"/>
       <c r="P127"/>
       <c r="Q127" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R127"/>
       <c r="S127"/>
       <c r="T127" t="s">
-        <v>429</v>
+        <v>25</v>
       </c>
       <c r="U127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>430</v>
+        <v>155</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -9072,14 +8241,14 @@
       <c r="F128"/>
       <c r="G128"/>
       <c r="H128" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I128"/>
       <c r="J128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K128" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -9089,12 +8258,12 @@
       <c r="O128"/>
       <c r="P128"/>
       <c r="Q128" t="s">
-        <v>431</v>
+        <v>25</v>
       </c>
       <c r="R128"/>
       <c r="S128"/>
       <c r="T128" t="s">
-        <v>432</v>
+        <v>25</v>
       </c>
       <c r="U128"/>
     </row>

--- a/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
+++ b/Output/EDT_RTT_habitat_attribute_score_comparison_REACHES.xlsx
@@ -926,12 +926,8 @@
       <c r="S2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
+      <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -987,12 +983,8 @@
       <c r="S3" t="s">
         <v>22</v>
       </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
-        <v>26</v>
-      </c>
+      <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1044,12 +1036,8 @@
       <c r="S4" t="s">
         <v>22</v>
       </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
+      <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1105,12 +1093,8 @@
       <c r="S5" t="s">
         <v>22</v>
       </c>
-      <c r="T5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" t="s">
-        <v>26</v>
-      </c>
+      <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1166,12 +1150,8 @@
       <c r="S6" t="s">
         <v>22</v>
       </c>
-      <c r="T6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" t="s">
-        <v>26</v>
-      </c>
+      <c r="T6"/>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1227,12 +1207,8 @@
       <c r="S7" t="s">
         <v>22</v>
       </c>
-      <c r="T7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" t="s">
-        <v>26</v>
-      </c>
+      <c r="T7"/>
+      <c r="U7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1284,12 +1260,8 @@
       <c r="S8" t="s">
         <v>22</v>
       </c>
-      <c r="T8" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" t="s">
-        <v>26</v>
-      </c>
+      <c r="T8"/>
+      <c r="U8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1345,12 +1317,8 @@
       <c r="S9" t="s">
         <v>22</v>
       </c>
-      <c r="T9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" t="s">
-        <v>26</v>
-      </c>
+      <c r="T9"/>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1406,12 +1374,8 @@
       <c r="S10" t="s">
         <v>22</v>
       </c>
-      <c r="T10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" t="s">
-        <v>26</v>
-      </c>
+      <c r="T10"/>
+      <c r="U10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1463,12 +1427,8 @@
       <c r="S11" t="s">
         <v>22</v>
       </c>
-      <c r="T11" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" t="s">
-        <v>26</v>
-      </c>
+      <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1520,12 +1480,8 @@
       <c r="S12" t="s">
         <v>22</v>
       </c>
-      <c r="T12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" t="s">
-        <v>26</v>
-      </c>
+      <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1577,12 +1533,8 @@
       <c r="S13" t="s">
         <v>22</v>
       </c>
-      <c r="T13" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" t="s">
-        <v>26</v>
-      </c>
+      <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1638,12 +1590,8 @@
       <c r="S14" t="s">
         <v>22</v>
       </c>
-      <c r="T14" t="s">
-        <v>25</v>
-      </c>
-      <c r="U14" t="s">
-        <v>26</v>
-      </c>
+      <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1695,12 +1643,8 @@
       <c r="S15" t="s">
         <v>22</v>
       </c>
-      <c r="T15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" t="s">
-        <v>26</v>
-      </c>
+      <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1752,12 +1696,8 @@
       <c r="S16" t="s">
         <v>22</v>
       </c>
-      <c r="T16" t="s">
-        <v>25</v>
-      </c>
-      <c r="U16" t="s">
-        <v>26</v>
-      </c>
+      <c r="T16"/>
+      <c r="U16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1813,12 +1753,8 @@
       <c r="S17" t="s">
         <v>22</v>
       </c>
-      <c r="T17" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" t="s">
-        <v>31</v>
-      </c>
+      <c r="T17"/>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1870,12 +1806,8 @@
       <c r="S18" t="s">
         <v>22</v>
       </c>
-      <c r="T18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U18" t="s">
-        <v>26</v>
-      </c>
+      <c r="T18"/>
+      <c r="U18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1927,12 +1859,8 @@
       <c r="S19" t="s">
         <v>22</v>
       </c>
-      <c r="T19" t="s">
-        <v>23</v>
-      </c>
-      <c r="U19" t="s">
-        <v>31</v>
-      </c>
+      <c r="T19"/>
+      <c r="U19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1984,12 +1912,8 @@
       <c r="S20" t="s">
         <v>22</v>
       </c>
-      <c r="T20" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" t="s">
-        <v>31</v>
-      </c>
+      <c r="T20"/>
+      <c r="U20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2045,12 +1969,8 @@
       <c r="S21" t="s">
         <v>22</v>
       </c>
-      <c r="T21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21" t="s">
-        <v>26</v>
-      </c>
+      <c r="T21"/>
+      <c r="U21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2106,12 +2026,8 @@
       <c r="S22" t="s">
         <v>22</v>
       </c>
-      <c r="T22" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" t="s">
-        <v>26</v>
-      </c>
+      <c r="T22"/>
+      <c r="U22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2167,12 +2083,8 @@
       <c r="S23" t="s">
         <v>22</v>
       </c>
-      <c r="T23" t="s">
-        <v>25</v>
-      </c>
-      <c r="U23" t="s">
-        <v>26</v>
-      </c>
+      <c r="T23"/>
+      <c r="U23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2228,12 +2140,8 @@
       <c r="S24" t="s">
         <v>22</v>
       </c>
-      <c r="T24" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" t="s">
-        <v>31</v>
-      </c>
+      <c r="T24"/>
+      <c r="U24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2338,12 +2246,8 @@
       <c r="S26" t="s">
         <v>22</v>
       </c>
-      <c r="T26" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" t="s">
-        <v>26</v>
-      </c>
+      <c r="T26"/>
+      <c r="U26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2395,12 +2299,8 @@
       <c r="S27" t="s">
         <v>22</v>
       </c>
-      <c r="T27" t="s">
-        <v>25</v>
-      </c>
-      <c r="U27" t="s">
-        <v>26</v>
-      </c>
+      <c r="T27"/>
+      <c r="U27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2456,12 +2356,8 @@
       <c r="S28" t="s">
         <v>22</v>
       </c>
-      <c r="T28" t="s">
-        <v>25</v>
-      </c>
-      <c r="U28" t="s">
-        <v>26</v>
-      </c>
+      <c r="T28"/>
+      <c r="U28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2517,12 +2413,8 @@
       <c r="S29" t="s">
         <v>22</v>
       </c>
-      <c r="T29" t="s">
-        <v>25</v>
-      </c>
-      <c r="U29" t="s">
-        <v>26</v>
-      </c>
+      <c r="T29"/>
+      <c r="U29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2574,12 +2466,8 @@
       <c r="S30" t="s">
         <v>23</v>
       </c>
-      <c r="T30" t="s">
-        <v>25</v>
-      </c>
-      <c r="U30" t="s">
-        <v>31</v>
-      </c>
+      <c r="T30"/>
+      <c r="U30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2635,12 +2523,8 @@
       <c r="S31" t="s">
         <v>22</v>
       </c>
-      <c r="T31" t="s">
-        <v>25</v>
-      </c>
-      <c r="U31" t="s">
-        <v>26</v>
-      </c>
+      <c r="T31"/>
+      <c r="U31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2696,12 +2580,8 @@
       <c r="S32" t="s">
         <v>22</v>
       </c>
-      <c r="T32" t="s">
-        <v>25</v>
-      </c>
-      <c r="U32" t="s">
-        <v>26</v>
-      </c>
+      <c r="T32"/>
+      <c r="U32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2757,12 +2637,8 @@
       <c r="S33" t="s">
         <v>22</v>
       </c>
-      <c r="T33" t="s">
-        <v>25</v>
-      </c>
-      <c r="U33" t="s">
-        <v>26</v>
-      </c>
+      <c r="T33"/>
+      <c r="U33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2814,12 +2690,8 @@
       <c r="S34" t="s">
         <v>22</v>
       </c>
-      <c r="T34" t="s">
-        <v>25</v>
-      </c>
-      <c r="U34" t="s">
-        <v>26</v>
-      </c>
+      <c r="T34"/>
+      <c r="U34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2871,12 +2743,8 @@
       <c r="S35" t="s">
         <v>22</v>
       </c>
-      <c r="T35" t="s">
-        <v>25</v>
-      </c>
-      <c r="U35" t="s">
-        <v>26</v>
-      </c>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2932,12 +2800,8 @@
       <c r="S36" t="s">
         <v>22</v>
       </c>
-      <c r="T36" t="s">
-        <v>23</v>
-      </c>
-      <c r="U36" t="s">
-        <v>31</v>
-      </c>
+      <c r="T36"/>
+      <c r="U36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -2993,12 +2857,8 @@
       <c r="S37" t="s">
         <v>22</v>
       </c>
-      <c r="T37" t="s">
-        <v>25</v>
-      </c>
-      <c r="U37" t="s">
-        <v>26</v>
-      </c>
+      <c r="T37"/>
+      <c r="U37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3050,12 +2910,8 @@
       <c r="S38" t="s">
         <v>22</v>
       </c>
-      <c r="T38" t="s">
-        <v>25</v>
-      </c>
-      <c r="U38" t="s">
-        <v>26</v>
-      </c>
+      <c r="T38"/>
+      <c r="U38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3107,12 +2963,8 @@
       <c r="S39" t="s">
         <v>22</v>
       </c>
-      <c r="T39" t="s">
-        <v>25</v>
-      </c>
-      <c r="U39" t="s">
-        <v>26</v>
-      </c>
+      <c r="T39"/>
+      <c r="U39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -3168,12 +3020,8 @@
       <c r="S40" t="s">
         <v>22</v>
       </c>
-      <c r="T40" t="s">
-        <v>25</v>
-      </c>
-      <c r="U40" t="s">
-        <v>26</v>
-      </c>
+      <c r="T40"/>
+      <c r="U40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -3229,12 +3077,8 @@
       <c r="S41" t="s">
         <v>22</v>
       </c>
-      <c r="T41" t="s">
-        <v>25</v>
-      </c>
-      <c r="U41" t="s">
-        <v>26</v>
-      </c>
+      <c r="T41"/>
+      <c r="U41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3290,12 +3134,8 @@
       <c r="S42" t="s">
         <v>22</v>
       </c>
-      <c r="T42" t="s">
-        <v>25</v>
-      </c>
-      <c r="U42" t="s">
-        <v>26</v>
-      </c>
+      <c r="T42"/>
+      <c r="U42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -3351,12 +3191,8 @@
       <c r="S43" t="s">
         <v>22</v>
       </c>
-      <c r="T43" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" t="s">
-        <v>31</v>
-      </c>
+      <c r="T43"/>
+      <c r="U43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -3408,12 +3244,8 @@
       <c r="S44" t="s">
         <v>22</v>
       </c>
-      <c r="T44" t="s">
-        <v>25</v>
-      </c>
-      <c r="U44" t="s">
-        <v>26</v>
-      </c>
+      <c r="T44"/>
+      <c r="U44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -3465,12 +3297,8 @@
       <c r="S45" t="s">
         <v>22</v>
       </c>
-      <c r="T45" t="s">
-        <v>25</v>
-      </c>
-      <c r="U45" t="s">
-        <v>26</v>
-      </c>
+      <c r="T45"/>
+      <c r="U45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -3526,12 +3354,8 @@
       <c r="S46" t="s">
         <v>22</v>
       </c>
-      <c r="T46" t="s">
-        <v>25</v>
-      </c>
-      <c r="U46" t="s">
-        <v>26</v>
-      </c>
+      <c r="T46"/>
+      <c r="U46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -3587,12 +3411,8 @@
       <c r="S47" t="s">
         <v>22</v>
       </c>
-      <c r="T47" t="s">
-        <v>25</v>
-      </c>
-      <c r="U47" t="s">
-        <v>26</v>
-      </c>
+      <c r="T47"/>
+      <c r="U47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -3644,12 +3464,8 @@
       <c r="S48" t="s">
         <v>22</v>
       </c>
-      <c r="T48" t="s">
-        <v>25</v>
-      </c>
-      <c r="U48" t="s">
-        <v>26</v>
-      </c>
+      <c r="T48"/>
+      <c r="U48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -3705,12 +3521,8 @@
       <c r="S49" t="s">
         <v>22</v>
       </c>
-      <c r="T49" t="s">
-        <v>25</v>
-      </c>
-      <c r="U49" t="s">
-        <v>26</v>
-      </c>
+      <c r="T49"/>
+      <c r="U49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -3762,12 +3574,8 @@
       <c r="S50" t="s">
         <v>22</v>
       </c>
-      <c r="T50" t="s">
-        <v>25</v>
-      </c>
-      <c r="U50" t="s">
-        <v>26</v>
-      </c>
+      <c r="T50"/>
+      <c r="U50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -3823,12 +3631,8 @@
       <c r="S51" t="s">
         <v>22</v>
       </c>
-      <c r="T51" t="s">
-        <v>25</v>
-      </c>
-      <c r="U51" t="s">
-        <v>26</v>
-      </c>
+      <c r="T51"/>
+      <c r="U51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -3884,12 +3688,8 @@
       <c r="S52" t="s">
         <v>22</v>
       </c>
-      <c r="T52" t="s">
-        <v>25</v>
-      </c>
-      <c r="U52" t="s">
-        <v>26</v>
-      </c>
+      <c r="T52"/>
+      <c r="U52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -3941,12 +3741,8 @@
       <c r="S53" t="s">
         <v>22</v>
       </c>
-      <c r="T53" t="s">
-        <v>25</v>
-      </c>
-      <c r="U53" t="s">
-        <v>26</v>
-      </c>
+      <c r="T53"/>
+      <c r="U53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -4002,12 +3798,8 @@
       <c r="S54" t="s">
         <v>22</v>
       </c>
-      <c r="T54" t="s">
-        <v>25</v>
-      </c>
-      <c r="U54" t="s">
-        <v>26</v>
-      </c>
+      <c r="T54"/>
+      <c r="U54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -4059,12 +3851,8 @@
       <c r="S55" t="s">
         <v>22</v>
       </c>
-      <c r="T55" t="s">
-        <v>25</v>
-      </c>
-      <c r="U55" t="s">
-        <v>26</v>
-      </c>
+      <c r="T55"/>
+      <c r="U55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -4120,12 +3908,8 @@
       <c r="S56" t="s">
         <v>22</v>
       </c>
-      <c r="T56" t="s">
-        <v>25</v>
-      </c>
-      <c r="U56" t="s">
-        <v>26</v>
-      </c>
+      <c r="T56"/>
+      <c r="U56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -4177,12 +3961,8 @@
       <c r="S57" t="s">
         <v>22</v>
       </c>
-      <c r="T57" t="s">
-        <v>23</v>
-      </c>
-      <c r="U57" t="s">
-        <v>31</v>
-      </c>
+      <c r="T57"/>
+      <c r="U57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -4238,12 +4018,8 @@
       <c r="S58" t="s">
         <v>22</v>
       </c>
-      <c r="T58" t="s">
-        <v>25</v>
-      </c>
-      <c r="U58" t="s">
-        <v>26</v>
-      </c>
+      <c r="T58"/>
+      <c r="U58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -4299,12 +4075,8 @@
       <c r="S59" t="s">
         <v>22</v>
       </c>
-      <c r="T59" t="s">
-        <v>25</v>
-      </c>
-      <c r="U59" t="s">
-        <v>26</v>
-      </c>
+      <c r="T59"/>
+      <c r="U59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -4356,12 +4128,8 @@
       <c r="S60" t="s">
         <v>22</v>
       </c>
-      <c r="T60" t="s">
-        <v>25</v>
-      </c>
-      <c r="U60" t="s">
-        <v>26</v>
-      </c>
+      <c r="T60"/>
+      <c r="U60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -4413,12 +4181,8 @@
       <c r="S61" t="s">
         <v>22</v>
       </c>
-      <c r="T61" t="s">
-        <v>25</v>
-      </c>
-      <c r="U61" t="s">
-        <v>26</v>
-      </c>
+      <c r="T61"/>
+      <c r="U61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -4474,12 +4238,8 @@
       <c r="S62" t="s">
         <v>22</v>
       </c>
-      <c r="T62" t="s">
-        <v>25</v>
-      </c>
-      <c r="U62" t="s">
-        <v>26</v>
-      </c>
+      <c r="T62"/>
+      <c r="U62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -4531,12 +4291,8 @@
       <c r="S63" t="s">
         <v>22</v>
       </c>
-      <c r="T63" t="s">
-        <v>25</v>
-      </c>
-      <c r="U63" t="s">
-        <v>26</v>
-      </c>
+      <c r="T63"/>
+      <c r="U63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -4592,12 +4348,8 @@
       <c r="S64" t="s">
         <v>22</v>
       </c>
-      <c r="T64" t="s">
-        <v>23</v>
-      </c>
-      <c r="U64" t="s">
-        <v>31</v>
-      </c>
+      <c r="T64"/>
+      <c r="U64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -4653,12 +4405,8 @@
       <c r="S65" t="s">
         <v>22</v>
       </c>
-      <c r="T65" t="s">
-        <v>25</v>
-      </c>
-      <c r="U65" t="s">
-        <v>26</v>
-      </c>
+      <c r="T65"/>
+      <c r="U65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -4710,12 +4458,8 @@
       <c r="S66" t="s">
         <v>22</v>
       </c>
-      <c r="T66" t="s">
-        <v>25</v>
-      </c>
-      <c r="U66" t="s">
-        <v>26</v>
-      </c>
+      <c r="T66"/>
+      <c r="U66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -4767,12 +4511,8 @@
       <c r="S67" t="s">
         <v>22</v>
       </c>
-      <c r="T67" t="s">
-        <v>25</v>
-      </c>
-      <c r="U67" t="s">
-        <v>26</v>
-      </c>
+      <c r="T67"/>
+      <c r="U67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -4828,12 +4568,8 @@
       <c r="S68" t="s">
         <v>22</v>
       </c>
-      <c r="T68" t="s">
-        <v>25</v>
-      </c>
-      <c r="U68" t="s">
-        <v>26</v>
-      </c>
+      <c r="T68"/>
+      <c r="U68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -4885,12 +4621,8 @@
       <c r="S69" t="s">
         <v>22</v>
       </c>
-      <c r="T69" t="s">
-        <v>25</v>
-      </c>
-      <c r="U69" t="s">
-        <v>26</v>
-      </c>
+      <c r="T69"/>
+      <c r="U69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -4946,12 +4678,8 @@
       <c r="S70" t="s">
         <v>22</v>
       </c>
-      <c r="T70" t="s">
-        <v>25</v>
-      </c>
-      <c r="U70" t="s">
-        <v>26</v>
-      </c>
+      <c r="T70"/>
+      <c r="U70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -5003,12 +4731,8 @@
       <c r="S71" t="s">
         <v>22</v>
       </c>
-      <c r="T71" t="s">
-        <v>25</v>
-      </c>
-      <c r="U71" t="s">
-        <v>26</v>
-      </c>
+      <c r="T71"/>
+      <c r="U71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -5060,12 +4784,8 @@
       <c r="S72" t="s">
         <v>22</v>
       </c>
-      <c r="T72" t="s">
-        <v>25</v>
-      </c>
-      <c r="U72" t="s">
-        <v>26</v>
-      </c>
+      <c r="T72"/>
+      <c r="U72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -5117,12 +4837,8 @@
       <c r="S73" t="s">
         <v>22</v>
       </c>
-      <c r="T73" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" t="s">
-        <v>31</v>
-      </c>
+      <c r="T73"/>
+      <c r="U73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -5178,12 +4894,8 @@
       <c r="S74" t="s">
         <v>22</v>
       </c>
-      <c r="T74" t="s">
-        <v>25</v>
-      </c>
-      <c r="U74" t="s">
-        <v>26</v>
-      </c>
+      <c r="T74"/>
+      <c r="U74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -5235,12 +4947,8 @@
       <c r="S75" t="s">
         <v>22</v>
       </c>
-      <c r="T75" t="s">
-        <v>25</v>
-      </c>
-      <c r="U75" t="s">
-        <v>26</v>
-      </c>
+      <c r="T75"/>
+      <c r="U75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -5296,12 +5004,8 @@
       <c r="S76" t="s">
         <v>22</v>
       </c>
-      <c r="T76" t="s">
-        <v>25</v>
-      </c>
-      <c r="U76" t="s">
-        <v>26</v>
-      </c>
+      <c r="T76"/>
+      <c r="U76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -5410,12 +5114,8 @@
       <c r="S78" t="s">
         <v>22</v>
       </c>
-      <c r="T78" t="s">
-        <v>25</v>
-      </c>
-      <c r="U78" t="s">
-        <v>26</v>
-      </c>
+      <c r="T78"/>
+      <c r="U78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -5467,12 +5167,8 @@
       <c r="S79" t="s">
         <v>22</v>
       </c>
-      <c r="T79" t="s">
-        <v>25</v>
-      </c>
-      <c r="U79" t="s">
-        <v>26</v>
-      </c>
+      <c r="T79"/>
+      <c r="U79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -5524,12 +5220,8 @@
       <c r="S80" t="s">
         <v>22</v>
       </c>
-      <c r="T80" t="s">
-        <v>25</v>
-      </c>
-      <c r="U80" t="s">
-        <v>26</v>
-      </c>
+      <c r="T80"/>
+      <c r="U80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -5585,12 +5277,8 @@
       <c r="S81" t="s">
         <v>22</v>
       </c>
-      <c r="T81" t="s">
-        <v>25</v>
-      </c>
-      <c r="U81" t="s">
-        <v>26</v>
-      </c>
+      <c r="T81"/>
+      <c r="U81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -5642,12 +5330,8 @@
       <c r="S82" t="s">
         <v>22</v>
       </c>
-      <c r="T82" t="s">
-        <v>25</v>
-      </c>
-      <c r="U82" t="s">
-        <v>26</v>
-      </c>
+      <c r="T82"/>
+      <c r="U82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -5699,12 +5383,8 @@
       <c r="S83" t="s">
         <v>22</v>
       </c>
-      <c r="T83" t="s">
-        <v>25</v>
-      </c>
-      <c r="U83" t="s">
-        <v>26</v>
-      </c>
+      <c r="T83"/>
+      <c r="U83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -5756,12 +5436,8 @@
       <c r="S84" t="s">
         <v>22</v>
       </c>
-      <c r="T84" t="s">
-        <v>25</v>
-      </c>
-      <c r="U84" t="s">
-        <v>26</v>
-      </c>
+      <c r="T84"/>
+      <c r="U84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -5813,12 +5489,8 @@
       <c r="S85" t="s">
         <v>22</v>
       </c>
-      <c r="T85" t="s">
-        <v>25</v>
-      </c>
-      <c r="U85" t="s">
-        <v>26</v>
-      </c>
+      <c r="T85"/>
+      <c r="U85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5874,12 +5546,8 @@
       <c r="S86" t="s">
         <v>22</v>
       </c>
-      <c r="T86" t="s">
-        <v>25</v>
-      </c>
-      <c r="U86" t="s">
-        <v>26</v>
-      </c>
+      <c r="T86"/>
+      <c r="U86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -5931,12 +5599,8 @@
       <c r="S87" t="s">
         <v>22</v>
       </c>
-      <c r="T87" t="s">
-        <v>25</v>
-      </c>
-      <c r="U87" t="s">
-        <v>26</v>
-      </c>
+      <c r="T87"/>
+      <c r="U87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -5992,12 +5656,8 @@
       <c r="S88" t="s">
         <v>22</v>
       </c>
-      <c r="T88" t="s">
-        <v>25</v>
-      </c>
-      <c r="U88" t="s">
-        <v>26</v>
-      </c>
+      <c r="T88"/>
+      <c r="U88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -6053,12 +5713,8 @@
       <c r="S89" t="s">
         <v>22</v>
       </c>
-      <c r="T89" t="s">
-        <v>25</v>
-      </c>
-      <c r="U89" t="s">
-        <v>26</v>
-      </c>
+      <c r="T89"/>
+      <c r="U89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -6110,12 +5766,8 @@
       <c r="S90" t="s">
         <v>22</v>
       </c>
-      <c r="T90" t="s">
-        <v>25</v>
-      </c>
-      <c r="U90" t="s">
-        <v>26</v>
-      </c>
+      <c r="T90"/>
+      <c r="U90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -6171,12 +5823,8 @@
       <c r="S91" t="s">
         <v>22</v>
       </c>
-      <c r="T91" t="s">
-        <v>25</v>
-      </c>
-      <c r="U91" t="s">
-        <v>26</v>
-      </c>
+      <c r="T91"/>
+      <c r="U91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -6228,12 +5876,8 @@
       <c r="S92" t="s">
         <v>22</v>
       </c>
-      <c r="T92" t="s">
-        <v>25</v>
-      </c>
-      <c r="U92" t="s">
-        <v>26</v>
-      </c>
+      <c r="T92"/>
+      <c r="U92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -6338,12 +5982,8 @@
       <c r="S94" t="s">
         <v>22</v>
       </c>
-      <c r="T94" t="s">
-        <v>25</v>
-      </c>
-      <c r="U94" t="s">
-        <v>26</v>
-      </c>
+      <c r="T94"/>
+      <c r="U94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -6399,12 +6039,8 @@
       <c r="S95" t="s">
         <v>22</v>
       </c>
-      <c r="T95" t="s">
-        <v>25</v>
-      </c>
-      <c r="U95" t="s">
-        <v>26</v>
-      </c>
+      <c r="T95"/>
+      <c r="U95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -6460,12 +6096,8 @@
       <c r="S96" t="s">
         <v>22</v>
       </c>
-      <c r="T96" t="s">
-        <v>25</v>
-      </c>
-      <c r="U96" t="s">
-        <v>26</v>
-      </c>
+      <c r="T96"/>
+      <c r="U96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -6521,12 +6153,8 @@
       <c r="S97" t="s">
         <v>22</v>
       </c>
-      <c r="T97" t="s">
-        <v>25</v>
-      </c>
-      <c r="U97" t="s">
-        <v>26</v>
-      </c>
+      <c r="T97"/>
+      <c r="U97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -6582,12 +6210,8 @@
       <c r="S98" t="s">
         <v>22</v>
       </c>
-      <c r="T98" t="s">
-        <v>25</v>
-      </c>
-      <c r="U98" t="s">
-        <v>26</v>
-      </c>
+      <c r="T98"/>
+      <c r="U98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -6639,12 +6263,8 @@
       <c r="S99" t="s">
         <v>22</v>
       </c>
-      <c r="T99" t="s">
-        <v>25</v>
-      </c>
-      <c r="U99" t="s">
-        <v>26</v>
-      </c>
+      <c r="T99"/>
+      <c r="U99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -6700,12 +6320,8 @@
       <c r="S100" t="s">
         <v>22</v>
       </c>
-      <c r="T100" t="s">
-        <v>25</v>
-      </c>
-      <c r="U100" t="s">
-        <v>26</v>
-      </c>
+      <c r="T100"/>
+      <c r="U100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -6757,12 +6373,8 @@
       <c r="S101" t="s">
         <v>22</v>
       </c>
-      <c r="T101" t="s">
-        <v>25</v>
-      </c>
-      <c r="U101" t="s">
-        <v>26</v>
-      </c>
+      <c r="T101"/>
+      <c r="U101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -6818,12 +6430,8 @@
       <c r="S102" t="s">
         <v>22</v>
       </c>
-      <c r="T102" t="s">
-        <v>25</v>
-      </c>
-      <c r="U102" t="s">
-        <v>26</v>
-      </c>
+      <c r="T102"/>
+      <c r="U102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -6879,12 +6487,8 @@
       <c r="S103" t="s">
         <v>22</v>
       </c>
-      <c r="T103" t="s">
-        <v>25</v>
-      </c>
-      <c r="U103" t="s">
-        <v>26</v>
-      </c>
+      <c r="T103"/>
+      <c r="U103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -6936,12 +6540,8 @@
       <c r="S104" t="s">
         <v>22</v>
       </c>
-      <c r="T104" t="s">
-        <v>25</v>
-      </c>
-      <c r="U104" t="s">
-        <v>26</v>
-      </c>
+      <c r="T104"/>
+      <c r="U104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -6993,12 +6593,8 @@
       <c r="S105" t="s">
         <v>22</v>
       </c>
-      <c r="T105" t="s">
-        <v>25</v>
-      </c>
-      <c r="U105" t="s">
-        <v>26</v>
-      </c>
+      <c r="T105"/>
+      <c r="U105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -7054,12 +6650,8 @@
       <c r="S106" t="s">
         <v>22</v>
       </c>
-      <c r="T106" t="s">
-        <v>25</v>
-      </c>
-      <c r="U106" t="s">
-        <v>26</v>
-      </c>
+      <c r="T106"/>
+      <c r="U106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -7111,12 +6703,8 @@
       <c r="S107" t="s">
         <v>22</v>
       </c>
-      <c r="T107" t="s">
-        <v>25</v>
-      </c>
-      <c r="U107" t="s">
-        <v>26</v>
-      </c>
+      <c r="T107"/>
+      <c r="U107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -7168,12 +6756,8 @@
       <c r="S108" t="s">
         <v>22</v>
       </c>
-      <c r="T108" t="s">
-        <v>25</v>
-      </c>
-      <c r="U108" t="s">
-        <v>26</v>
-      </c>
+      <c r="T108"/>
+      <c r="U108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -7225,12 +6809,8 @@
       <c r="S109" t="s">
         <v>22</v>
       </c>
-      <c r="T109" t="s">
-        <v>25</v>
-      </c>
-      <c r="U109" t="s">
-        <v>26</v>
-      </c>
+      <c r="T109"/>
+      <c r="U109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -7282,12 +6862,8 @@
       <c r="S110" t="s">
         <v>22</v>
       </c>
-      <c r="T110" t="s">
-        <v>25</v>
-      </c>
-      <c r="U110" t="s">
-        <v>26</v>
-      </c>
+      <c r="T110"/>
+      <c r="U110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -7343,12 +6919,8 @@
       <c r="S111" t="s">
         <v>22</v>
       </c>
-      <c r="T111" t="s">
-        <v>25</v>
-      </c>
-      <c r="U111" t="s">
-        <v>26</v>
-      </c>
+      <c r="T111"/>
+      <c r="U111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -7404,12 +6976,8 @@
       <c r="S112" t="s">
         <v>22</v>
       </c>
-      <c r="T112" t="s">
-        <v>25</v>
-      </c>
-      <c r="U112" t="s">
-        <v>26</v>
-      </c>
+      <c r="T112"/>
+      <c r="U112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -7465,12 +7033,8 @@
       <c r="S113" t="s">
         <v>22</v>
       </c>
-      <c r="T113" t="s">
-        <v>23</v>
-      </c>
-      <c r="U113" t="s">
-        <v>31</v>
-      </c>
+      <c r="T113"/>
+      <c r="U113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -7526,12 +7090,8 @@
       <c r="S114" t="s">
         <v>22</v>
       </c>
-      <c r="T114" t="s">
-        <v>25</v>
-      </c>
-      <c r="U114" t="s">
-        <v>26</v>
-      </c>
+      <c r="T114"/>
+      <c r="U114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -7587,12 +7147,8 @@
       <c r="S115" t="s">
         <v>22</v>
       </c>
-      <c r="T115" t="s">
-        <v>25</v>
-      </c>
-      <c r="U115" t="s">
-        <v>26</v>
-      </c>
+      <c r="T115"/>
+      <c r="U115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -7644,12 +7200,8 @@
       <c r="S116" t="s">
         <v>22</v>
       </c>
-      <c r="T116" t="s">
-        <v>25</v>
-      </c>
-      <c r="U116" t="s">
-        <v>26</v>
-      </c>
+      <c r="T116"/>
+      <c r="U116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -7705,12 +7257,8 @@
       <c r="S117" t="s">
         <v>22</v>
       </c>
-      <c r="T117" t="s">
-        <v>25</v>
-      </c>
-      <c r="U117" t="s">
-        <v>26</v>
-      </c>
+      <c r="T117"/>
+      <c r="U117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -7766,12 +7314,8 @@
       <c r="S118" t="s">
         <v>22</v>
       </c>
-      <c r="T118" t="s">
-        <v>25</v>
-      </c>
-      <c r="U118" t="s">
-        <v>26</v>
-      </c>
+      <c r="T118"/>
+      <c r="U118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -7823,12 +7367,8 @@
       <c r="S119" t="s">
         <v>22</v>
       </c>
-      <c r="T119" t="s">
-        <v>25</v>
-      </c>
-      <c r="U119" t="s">
-        <v>26</v>
-      </c>
+      <c r="T119"/>
+      <c r="U119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -7884,12 +7424,8 @@
       <c r="S120" t="s">
         <v>22</v>
       </c>
-      <c r="T120" t="s">
-        <v>25</v>
-      </c>
-      <c r="U120" t="s">
-        <v>26</v>
-      </c>
+      <c r="T120"/>
+      <c r="U120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -7945,12 +7481,8 @@
       <c r="S121" t="s">
         <v>22</v>
       </c>
-      <c r="T121" t="s">
-        <v>25</v>
-      </c>
-      <c r="U121" t="s">
-        <v>26</v>
-      </c>
+      <c r="T121"/>
+      <c r="U121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -8002,12 +7534,8 @@
       <c r="S122" t="s">
         <v>22</v>
       </c>
-      <c r="T122" t="s">
-        <v>25</v>
-      </c>
-      <c r="U122" t="s">
-        <v>26</v>
-      </c>
+      <c r="T122"/>
+      <c r="U122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -8059,12 +7587,8 @@
       <c r="S123" t="s">
         <v>22</v>
       </c>
-      <c r="T123" t="s">
-        <v>25</v>
-      </c>
-      <c r="U123" t="s">
-        <v>26</v>
-      </c>
+      <c r="T123"/>
+      <c r="U123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -8116,12 +7640,8 @@
       <c r="S124" t="s">
         <v>22</v>
       </c>
-      <c r="T124" t="s">
-        <v>25</v>
-      </c>
-      <c r="U124" t="s">
-        <v>26</v>
-      </c>
+      <c r="T124"/>
+      <c r="U124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -8155,9 +7675,7 @@
       </c>
       <c r="R125"/>
       <c r="S125"/>
-      <c r="T125" t="s">
-        <v>25</v>
-      </c>
+      <c r="T125"/>
       <c r="U125"/>
     </row>
     <row r="126">
@@ -8225,9 +7743,7 @@
       </c>
       <c r="R127"/>
       <c r="S127"/>
-      <c r="T127" t="s">
-        <v>25</v>
-      </c>
+      <c r="T127"/>
       <c r="U127"/>
     </row>
     <row r="128">
@@ -8262,9 +7778,7 @@
       </c>
       <c r="R128"/>
       <c r="S128"/>
-      <c r="T128" t="s">
-        <v>25</v>
-      </c>
+      <c r="T128"/>
       <c r="U128"/>
     </row>
   </sheetData>
